--- a/CONTROLE AÇOUGUE.xlsx
+++ b/CONTROLE AÇOUGUE.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" hidePivotFieldList="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="835" activeTab="10"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="835" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="PROD" sheetId="8" r:id="rId1"/>
@@ -22,20 +22,21 @@
     <sheet name="RES-06" sheetId="17" r:id="rId13"/>
     <sheet name="RES-07" sheetId="19" r:id="rId14"/>
     <sheet name="RES-08" sheetId="21" r:id="rId15"/>
+    <sheet name="bd-centro-custo" sheetId="22" r:id="rId16"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'REND form'!#REF!</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId16"/>
-    <pivotCache cacheId="1" r:id="rId17"/>
+    <pivotCache cacheId="0" r:id="rId17"/>
+    <pivotCache cacheId="1" r:id="rId18"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1311" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1361" uniqueCount="135">
   <si>
     <t>RENDIMENTO DIANTEIRO</t>
   </si>
@@ -437,6 +438,21 @@
   </si>
   <si>
     <t>PERDA</t>
+  </si>
+  <si>
+    <t>SETOR</t>
+  </si>
+  <si>
+    <t>MES</t>
+  </si>
+  <si>
+    <t>ENTRADA</t>
+  </si>
+  <si>
+    <t>SAIDA</t>
+  </si>
+  <si>
+    <t>PERDA FIN</t>
   </si>
 </sst>
 </file>
@@ -1145,8 +1161,50 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1175,81 +1233,39 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="4" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -1261,39 +1277,6 @@
     <cellStyle name="Vírgula" xfId="5" builtinId="3"/>
   </cellStyles>
   <dxfs count="21">
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -1433,6 +1416,39 @@
           <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -11724,10 +11740,10 @@
     <dataField name="Soma de Venda Real" fld="2" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="2">
-    <format dxfId="1">
+    <format dxfId="15">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="0">
+    <format dxfId="14">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -11795,16 +11811,16 @@
     <dataField name="Soma de Valor" fld="1" baseField="0" baseItem="0" numFmtId="44"/>
   </dataFields>
   <formats count="5">
-    <format dxfId="6">
+    <format dxfId="20">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="5">
+    <format dxfId="19">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="4">
+    <format dxfId="18">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="3">
+    <format dxfId="17">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="1">
@@ -11813,7 +11829,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="2">
+    <format dxfId="16">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="1">
@@ -14266,10 +14282,10 @@
     <row r="52" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <conditionalFormatting sqref="S28:S30 AB25:AC27">
-    <cfRule type="cellIs" dxfId="10" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14282,8 +14298,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI52"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AG6" sqref="AG6"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15666,10 +15682,10 @@
     <row r="52" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <conditionalFormatting sqref="S28:S30 AB25:AC27">
-    <cfRule type="cellIs" dxfId="8" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15683,7 +15699,7 @@
   <dimension ref="A1:X84"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="A2" sqref="A2:X19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15713,225 +15729,225 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="143"/>
-      <c r="B1" s="143"/>
-      <c r="C1" s="143"/>
-      <c r="D1" s="144" t="s">
+      <c r="A1" s="123"/>
+      <c r="B1" s="123"/>
+      <c r="C1" s="123"/>
+      <c r="D1" s="125" t="s">
         <v>76</v>
       </c>
-      <c r="E1" s="144"/>
-      <c r="F1" s="144"/>
-      <c r="G1" s="144"/>
-      <c r="H1" s="144"/>
-      <c r="I1" s="144"/>
+      <c r="E1" s="125"/>
+      <c r="F1" s="125"/>
+      <c r="G1" s="125"/>
+      <c r="H1" s="125"/>
+      <c r="I1" s="125"/>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A2" s="135" t="s">
+      <c r="A2" s="128" t="s">
         <v>74</v>
       </c>
-      <c r="B2" s="135"/>
-      <c r="C2" s="135"/>
-      <c r="D2" s="135" t="s">
+      <c r="B2" s="128"/>
+      <c r="C2" s="128"/>
+      <c r="D2" s="128" t="s">
         <v>75</v>
       </c>
-      <c r="E2" s="135"/>
-      <c r="F2" s="135"/>
-      <c r="G2" s="135" t="s">
+      <c r="E2" s="128"/>
+      <c r="F2" s="128"/>
+      <c r="G2" s="128" t="s">
         <v>89</v>
       </c>
-      <c r="H2" s="135"/>
-      <c r="I2" s="135"/>
-      <c r="J2" s="135" t="s">
+      <c r="H2" s="128"/>
+      <c r="I2" s="128"/>
+      <c r="J2" s="128" t="s">
         <v>104</v>
       </c>
-      <c r="K2" s="135"/>
-      <c r="L2" s="135"/>
+      <c r="K2" s="128"/>
+      <c r="L2" s="128"/>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A3" s="135"/>
-      <c r="B3" s="135"/>
-      <c r="C3" s="135"/>
-      <c r="D3" s="135"/>
-      <c r="E3" s="135"/>
-      <c r="F3" s="135"/>
-      <c r="G3" s="135"/>
-      <c r="H3" s="135"/>
-      <c r="I3" s="135"/>
-      <c r="J3" s="135"/>
-      <c r="K3" s="135"/>
-      <c r="L3" s="135"/>
+      <c r="A3" s="128"/>
+      <c r="B3" s="128"/>
+      <c r="C3" s="128"/>
+      <c r="D3" s="128"/>
+      <c r="E3" s="128"/>
+      <c r="F3" s="128"/>
+      <c r="G3" s="128"/>
+      <c r="H3" s="128"/>
+      <c r="I3" s="128"/>
+      <c r="J3" s="128"/>
+      <c r="K3" s="128"/>
+      <c r="L3" s="128"/>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A4" s="136"/>
-      <c r="B4" s="136"/>
-      <c r="C4" s="136"/>
-      <c r="D4" s="136"/>
-      <c r="E4" s="136"/>
-      <c r="F4" s="136"/>
-      <c r="G4" s="136"/>
-      <c r="H4" s="136"/>
-      <c r="I4" s="136"/>
-      <c r="J4" s="136"/>
-      <c r="K4" s="136"/>
-      <c r="L4" s="136"/>
+      <c r="A4" s="129"/>
+      <c r="B4" s="129"/>
+      <c r="C4" s="129"/>
+      <c r="D4" s="129"/>
+      <c r="E4" s="129"/>
+      <c r="F4" s="129"/>
+      <c r="G4" s="129"/>
+      <c r="H4" s="129"/>
+      <c r="I4" s="129"/>
+      <c r="J4" s="129"/>
+      <c r="K4" s="129"/>
+      <c r="L4" s="129"/>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A5" s="133" t="s">
+      <c r="A5" s="124" t="s">
         <v>77</v>
       </c>
-      <c r="B5" s="133"/>
+      <c r="B5" s="124"/>
       <c r="C5" s="48">
         <v>515497.13</v>
       </c>
-      <c r="D5" s="133" t="s">
+      <c r="D5" s="124" t="s">
         <v>77</v>
       </c>
-      <c r="E5" s="133"/>
+      <c r="E5" s="124"/>
       <c r="F5" s="48">
         <v>744064.75</v>
       </c>
-      <c r="G5" s="133" t="s">
+      <c r="G5" s="124" t="s">
         <v>77</v>
       </c>
-      <c r="H5" s="133"/>
+      <c r="H5" s="124"/>
       <c r="I5" s="48">
         <v>310974.69</v>
       </c>
-      <c r="J5" s="133" t="s">
+      <c r="J5" s="124" t="s">
         <v>77</v>
       </c>
-      <c r="K5" s="133"/>
+      <c r="K5" s="124"/>
       <c r="L5" s="48">
         <v>892402.95</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A6" s="133" t="s">
+      <c r="A6" s="124" t="s">
         <v>78</v>
       </c>
-      <c r="B6" s="133"/>
+      <c r="B6" s="124"/>
       <c r="C6" s="48">
         <v>383514.01</v>
       </c>
-      <c r="D6" s="133" t="s">
+      <c r="D6" s="124" t="s">
         <v>78</v>
       </c>
-      <c r="E6" s="133"/>
+      <c r="E6" s="124"/>
       <c r="F6" s="48">
         <v>582486.59</v>
       </c>
-      <c r="G6" s="133" t="s">
+      <c r="G6" s="124" t="s">
         <v>78</v>
       </c>
-      <c r="H6" s="133"/>
+      <c r="H6" s="124"/>
       <c r="I6" s="48">
         <v>169796.00570000001</v>
       </c>
-      <c r="J6" s="133" t="s">
+      <c r="J6" s="124" t="s">
         <v>78</v>
       </c>
-      <c r="K6" s="133"/>
+      <c r="K6" s="124"/>
       <c r="L6" s="48">
         <v>648565.17000000004</v>
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A7" s="133" t="s">
+      <c r="A7" s="124" t="s">
         <v>79</v>
       </c>
-      <c r="B7" s="133"/>
+      <c r="B7" s="124"/>
       <c r="C7" s="38">
         <f>C5-C6</f>
         <v>131983.12</v>
       </c>
-      <c r="D7" s="133" t="s">
+      <c r="D7" s="124" t="s">
         <v>79</v>
       </c>
-      <c r="E7" s="133"/>
+      <c r="E7" s="124"/>
       <c r="F7" s="38">
         <f>F5-F6</f>
         <v>161578.16000000003</v>
       </c>
-      <c r="G7" s="133" t="s">
+      <c r="G7" s="124" t="s">
         <v>79</v>
       </c>
-      <c r="H7" s="133"/>
+      <c r="H7" s="124"/>
       <c r="I7" s="38">
         <f>I5-I6</f>
         <v>141178.68429999999</v>
       </c>
-      <c r="J7" s="133" t="s">
+      <c r="J7" s="124" t="s">
         <v>79</v>
       </c>
-      <c r="K7" s="133"/>
+      <c r="K7" s="124"/>
       <c r="L7" s="38">
         <f>L5-L6</f>
         <v>243837.77999999991</v>
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A8" s="123" t="s">
+      <c r="A8" s="126" t="s">
         <v>80</v>
       </c>
-      <c r="B8" s="123"/>
+      <c r="B8" s="126"/>
       <c r="C8" s="65">
         <f>C46</f>
         <v>109890.96480000006</v>
       </c>
-      <c r="D8" s="123" t="s">
+      <c r="D8" s="126" t="s">
         <v>80</v>
       </c>
-      <c r="E8" s="123"/>
+      <c r="E8" s="126"/>
       <c r="F8" s="70">
         <f>F46</f>
         <v>107436.3848</v>
       </c>
-      <c r="G8" s="123" t="s">
+      <c r="G8" s="126" t="s">
         <v>80</v>
       </c>
-      <c r="H8" s="123"/>
+      <c r="H8" s="126"/>
       <c r="I8" s="65">
         <f>K46</f>
         <v>159615.15580000004</v>
       </c>
-      <c r="J8" s="123" t="s">
+      <c r="J8" s="126" t="s">
         <v>80</v>
       </c>
-      <c r="K8" s="123"/>
+      <c r="K8" s="126"/>
       <c r="L8" s="70">
         <f>L46</f>
         <v>153308.26200000002</v>
       </c>
     </row>
     <row r="9" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A9" s="134" t="s">
+      <c r="A9" s="127" t="s">
         <v>81</v>
       </c>
-      <c r="B9" s="134"/>
+      <c r="B9" s="127"/>
       <c r="C9" s="68">
         <f>C7-C8</f>
         <v>22092.155199999936</v>
       </c>
-      <c r="D9" s="134" t="s">
+      <c r="D9" s="127" t="s">
         <v>81</v>
       </c>
-      <c r="E9" s="134"/>
+      <c r="E9" s="127"/>
       <c r="F9" s="68">
         <f>F7-F8</f>
         <v>54141.775200000033</v>
       </c>
-      <c r="G9" s="134" t="s">
+      <c r="G9" s="127" t="s">
         <v>81</v>
       </c>
-      <c r="H9" s="134"/>
+      <c r="H9" s="127"/>
       <c r="I9" s="69">
         <f>I7-I8</f>
         <v>-18436.471500000043</v>
       </c>
-      <c r="J9" s="134" t="s">
+      <c r="J9" s="127" t="s">
         <v>81</v>
       </c>
-      <c r="K9" s="134"/>
+      <c r="K9" s="127"/>
       <c r="L9" s="68">
         <f>L7-L8</f>
         <v>90529.517999999895</v>
@@ -15990,31 +16006,31 @@
       <c r="X11" s="58"/>
     </row>
     <row r="12" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="135" t="s">
+      <c r="A12" s="128" t="s">
         <v>102</v>
       </c>
-      <c r="B12" s="135"/>
-      <c r="C12" s="135"/>
-      <c r="D12" s="135" t="s">
+      <c r="B12" s="128"/>
+      <c r="C12" s="128"/>
+      <c r="D12" s="128" t="s">
         <v>100</v>
       </c>
-      <c r="E12" s="135"/>
-      <c r="F12" s="135"/>
-      <c r="G12" s="135" t="s">
+      <c r="E12" s="128"/>
+      <c r="F12" s="128"/>
+      <c r="G12" s="128" t="s">
         <v>101</v>
       </c>
-      <c r="H12" s="135"/>
-      <c r="I12" s="135"/>
-      <c r="J12" s="135" t="s">
+      <c r="H12" s="128"/>
+      <c r="I12" s="128"/>
+      <c r="J12" s="128" t="s">
         <v>119</v>
       </c>
-      <c r="K12" s="135"/>
-      <c r="L12" s="135"/>
-      <c r="M12" s="135" t="s">
+      <c r="K12" s="128"/>
+      <c r="L12" s="128"/>
+      <c r="M12" s="128" t="s">
         <v>99</v>
       </c>
-      <c r="N12" s="135"/>
-      <c r="O12" s="135"/>
+      <c r="N12" s="128"/>
+      <c r="O12" s="128"/>
       <c r="P12" s="58"/>
       <c r="Q12" s="58"/>
       <c r="R12" s="58"/>
@@ -16026,21 +16042,21 @@
       <c r="X12" s="58"/>
     </row>
     <row r="13" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="135"/>
-      <c r="B13" s="135"/>
-      <c r="C13" s="135"/>
-      <c r="D13" s="135"/>
-      <c r="E13" s="135"/>
-      <c r="F13" s="135"/>
-      <c r="G13" s="135"/>
-      <c r="H13" s="135"/>
-      <c r="I13" s="135"/>
-      <c r="J13" s="135"/>
-      <c r="K13" s="135"/>
-      <c r="L13" s="135"/>
-      <c r="M13" s="135"/>
-      <c r="N13" s="135"/>
-      <c r="O13" s="135"/>
+      <c r="A13" s="128"/>
+      <c r="B13" s="128"/>
+      <c r="C13" s="128"/>
+      <c r="D13" s="128"/>
+      <c r="E13" s="128"/>
+      <c r="F13" s="128"/>
+      <c r="G13" s="128"/>
+      <c r="H13" s="128"/>
+      <c r="I13" s="128"/>
+      <c r="J13" s="128"/>
+      <c r="K13" s="128"/>
+      <c r="L13" s="128"/>
+      <c r="M13" s="128"/>
+      <c r="N13" s="128"/>
+      <c r="O13" s="128"/>
       <c r="P13" s="58"/>
       <c r="Q13" s="58"/>
       <c r="R13" s="58"/>
@@ -16052,21 +16068,21 @@
       <c r="X13" s="58"/>
     </row>
     <row r="14" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="136"/>
-      <c r="B14" s="136"/>
-      <c r="C14" s="136"/>
-      <c r="D14" s="136"/>
-      <c r="E14" s="136"/>
-      <c r="F14" s="136"/>
-      <c r="G14" s="136"/>
-      <c r="H14" s="136"/>
-      <c r="I14" s="136"/>
-      <c r="J14" s="136"/>
-      <c r="K14" s="136"/>
-      <c r="L14" s="136"/>
-      <c r="M14" s="136"/>
-      <c r="N14" s="136"/>
-      <c r="O14" s="136"/>
+      <c r="A14" s="129"/>
+      <c r="B14" s="129"/>
+      <c r="C14" s="129"/>
+      <c r="D14" s="129"/>
+      <c r="E14" s="129"/>
+      <c r="F14" s="129"/>
+      <c r="G14" s="129"/>
+      <c r="H14" s="129"/>
+      <c r="I14" s="129"/>
+      <c r="J14" s="129"/>
+      <c r="K14" s="129"/>
+      <c r="L14" s="129"/>
+      <c r="M14" s="129"/>
+      <c r="N14" s="129"/>
+      <c r="O14" s="129"/>
       <c r="P14" s="58"/>
       <c r="Q14" s="58"/>
       <c r="R14" s="58"/>
@@ -16078,38 +16094,38 @@
       <c r="X14" s="58"/>
     </row>
     <row r="15" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="133" t="s">
+      <c r="A15" s="124" t="s">
         <v>77</v>
       </c>
-      <c r="B15" s="133"/>
+      <c r="B15" s="124"/>
       <c r="C15" s="48">
         <v>375568.51</v>
       </c>
-      <c r="D15" s="133" t="s">
+      <c r="D15" s="124" t="s">
         <v>77</v>
       </c>
-      <c r="E15" s="133"/>
+      <c r="E15" s="124"/>
       <c r="F15" s="48">
         <v>488197.85</v>
       </c>
-      <c r="G15" s="133" t="s">
+      <c r="G15" s="124" t="s">
         <v>77</v>
       </c>
-      <c r="H15" s="133"/>
+      <c r="H15" s="124"/>
       <c r="I15" s="48">
         <v>224640.79</v>
       </c>
-      <c r="J15" s="133" t="s">
+      <c r="J15" s="124" t="s">
         <v>77</v>
       </c>
-      <c r="K15" s="133"/>
+      <c r="K15" s="124"/>
       <c r="L15" s="48">
         <v>265859.15000000002</v>
       </c>
-      <c r="M15" s="133" t="s">
+      <c r="M15" s="124" t="s">
         <v>77</v>
       </c>
-      <c r="N15" s="133"/>
+      <c r="N15" s="124"/>
       <c r="O15" s="48">
         <v>274005.59000000003</v>
       </c>
@@ -16124,38 +16140,38 @@
       <c r="X15" s="58"/>
     </row>
     <row r="16" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="133" t="s">
+      <c r="A16" s="124" t="s">
         <v>78</v>
       </c>
-      <c r="B16" s="133"/>
+      <c r="B16" s="124"/>
       <c r="C16" s="48">
         <v>337876</v>
       </c>
-      <c r="D16" s="133" t="s">
+      <c r="D16" s="124" t="s">
         <v>78</v>
       </c>
-      <c r="E16" s="133"/>
+      <c r="E16" s="124"/>
       <c r="F16" s="48">
         <v>355400.3</v>
       </c>
-      <c r="G16" s="133" t="s">
+      <c r="G16" s="124" t="s">
         <v>78</v>
       </c>
-      <c r="H16" s="133"/>
+      <c r="H16" s="124"/>
       <c r="I16" s="48">
         <v>167236.15</v>
       </c>
-      <c r="J16" s="133" t="s">
+      <c r="J16" s="124" t="s">
         <v>78</v>
       </c>
-      <c r="K16" s="133"/>
+      <c r="K16" s="124"/>
       <c r="L16" s="48">
         <v>157088.06</v>
       </c>
-      <c r="M16" s="133" t="s">
+      <c r="M16" s="124" t="s">
         <v>78</v>
       </c>
-      <c r="N16" s="133"/>
+      <c r="N16" s="124"/>
       <c r="O16" s="48">
         <v>195512.576</v>
       </c>
@@ -16170,42 +16186,42 @@
       <c r="X16" s="58"/>
     </row>
     <row r="17" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="133" t="s">
+      <c r="A17" s="124" t="s">
         <v>79</v>
       </c>
-      <c r="B17" s="133"/>
+      <c r="B17" s="124"/>
       <c r="C17" s="38">
         <f>C15-C16</f>
         <v>37692.510000000009</v>
       </c>
-      <c r="D17" s="133" t="s">
+      <c r="D17" s="124" t="s">
         <v>79</v>
       </c>
-      <c r="E17" s="133"/>
+      <c r="E17" s="124"/>
       <c r="F17" s="38">
         <f>F15-F16</f>
         <v>132797.54999999999</v>
       </c>
-      <c r="G17" s="133" t="s">
+      <c r="G17" s="124" t="s">
         <v>79</v>
       </c>
-      <c r="H17" s="133"/>
+      <c r="H17" s="124"/>
       <c r="I17" s="38">
         <f>I15-I16</f>
         <v>57404.640000000014</v>
       </c>
-      <c r="J17" s="133" t="s">
+      <c r="J17" s="124" t="s">
         <v>79</v>
       </c>
-      <c r="K17" s="133"/>
+      <c r="K17" s="124"/>
       <c r="L17" s="38">
         <f>L15-L16</f>
         <v>108771.09000000003</v>
       </c>
-      <c r="M17" s="133" t="s">
+      <c r="M17" s="124" t="s">
         <v>79</v>
       </c>
-      <c r="N17" s="133"/>
+      <c r="N17" s="124"/>
       <c r="O17" s="38">
         <f>O15-O16</f>
         <v>78493.014000000025</v>
@@ -16221,42 +16237,42 @@
       <c r="X17" s="58"/>
     </row>
     <row r="18" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="123" t="s">
+      <c r="A18" s="126" t="s">
         <v>80</v>
       </c>
-      <c r="B18" s="123"/>
+      <c r="B18" s="126"/>
       <c r="C18" s="65">
         <f>J46</f>
         <v>59781.935800000021</v>
       </c>
-      <c r="D18" s="123" t="s">
+      <c r="D18" s="126" t="s">
         <v>80</v>
       </c>
-      <c r="E18" s="123"/>
+      <c r="E18" s="126"/>
       <c r="F18" s="70">
         <f>H46</f>
         <v>65032.173400000014</v>
       </c>
-      <c r="G18" s="123" t="s">
+      <c r="G18" s="126" t="s">
         <v>80</v>
       </c>
-      <c r="H18" s="123"/>
+      <c r="H18" s="126"/>
       <c r="I18" s="65">
         <f>I46</f>
         <v>59781.935800000021</v>
       </c>
-      <c r="J18" s="123" t="s">
+      <c r="J18" s="126" t="s">
         <v>80</v>
       </c>
-      <c r="K18" s="123"/>
+      <c r="K18" s="126"/>
       <c r="L18" s="70">
         <f>Q46</f>
         <v>59781.935800000021</v>
       </c>
-      <c r="M18" s="123" t="s">
+      <c r="M18" s="126" t="s">
         <v>80</v>
       </c>
-      <c r="N18" s="123"/>
+      <c r="N18" s="126"/>
       <c r="O18" s="70">
         <f>G46</f>
         <v>59781.935800000021</v>
@@ -16272,42 +16288,42 @@
       <c r="X18" s="58"/>
     </row>
     <row r="19" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="134" t="s">
+      <c r="A19" s="127" t="s">
         <v>81</v>
       </c>
-      <c r="B19" s="134"/>
+      <c r="B19" s="127"/>
       <c r="C19" s="69">
         <f>C17-C18</f>
         <v>-22089.425800000012</v>
       </c>
-      <c r="D19" s="134" t="s">
+      <c r="D19" s="127" t="s">
         <v>81</v>
       </c>
-      <c r="E19" s="134"/>
+      <c r="E19" s="127"/>
       <c r="F19" s="68">
         <f>F17-F18</f>
         <v>67765.376599999974</v>
       </c>
-      <c r="G19" s="134" t="s">
+      <c r="G19" s="127" t="s">
         <v>81</v>
       </c>
-      <c r="H19" s="134"/>
+      <c r="H19" s="127"/>
       <c r="I19" s="69">
         <f>I17-I18</f>
         <v>-2377.2958000000071</v>
       </c>
-      <c r="J19" s="134" t="s">
+      <c r="J19" s="127" t="s">
         <v>81</v>
       </c>
-      <c r="K19" s="134"/>
+      <c r="K19" s="127"/>
       <c r="L19" s="68">
         <f>L17-L18</f>
         <v>48989.154200000004</v>
       </c>
-      <c r="M19" s="134" t="s">
+      <c r="M19" s="127" t="s">
         <v>81</v>
       </c>
-      <c r="N19" s="134"/>
+      <c r="N19" s="127"/>
       <c r="O19" s="68">
         <f>O17-O18</f>
         <v>18711.078200000004</v>
@@ -16443,74 +16459,74 @@
         <v>111</v>
       </c>
       <c r="B26" s="107"/>
-      <c r="C26" s="142" t="s">
+      <c r="C26" s="130" t="s">
         <v>92</v>
       </c>
-      <c r="D26" s="142" t="s">
+      <c r="D26" s="130" t="s">
         <v>94</v>
       </c>
-      <c r="E26" s="142" t="s">
+      <c r="E26" s="130" t="s">
         <v>96</v>
       </c>
-      <c r="F26" s="142" t="s">
+      <c r="F26" s="130" t="s">
         <v>75</v>
       </c>
-      <c r="G26" s="142" t="s">
+      <c r="G26" s="130" t="s">
         <v>99</v>
       </c>
-      <c r="H26" s="142" t="s">
+      <c r="H26" s="130" t="s">
         <v>114</v>
       </c>
-      <c r="I26" s="145" t="s">
+      <c r="I26" s="131" t="s">
         <v>101</v>
       </c>
-      <c r="J26" s="142" t="s">
+      <c r="J26" s="130" t="s">
         <v>113</v>
       </c>
-      <c r="K26" s="142" t="s">
+      <c r="K26" s="130" t="s">
         <v>89</v>
       </c>
-      <c r="L26" s="142" t="s">
+      <c r="L26" s="130" t="s">
         <v>104</v>
       </c>
-      <c r="M26" s="138" t="s">
+      <c r="M26" s="133" t="s">
         <v>115</v>
       </c>
-      <c r="N26" s="138" t="s">
+      <c r="N26" s="133" t="s">
         <v>106</v>
       </c>
-      <c r="O26" s="138" t="s">
+      <c r="O26" s="133" t="s">
         <v>116</v>
       </c>
-      <c r="P26" s="138" t="s">
+      <c r="P26" s="133" t="s">
         <v>108</v>
       </c>
-      <c r="Q26" s="140" t="s">
+      <c r="Q26" s="135" t="s">
         <v>119</v>
       </c>
-      <c r="R26" s="139" t="s">
+      <c r="R26" s="134" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="27" spans="1:24" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="107"/>
       <c r="B27" s="107"/>
-      <c r="C27" s="142"/>
-      <c r="D27" s="142"/>
-      <c r="E27" s="142"/>
-      <c r="F27" s="142"/>
-      <c r="G27" s="142"/>
-      <c r="H27" s="142"/>
-      <c r="I27" s="146"/>
-      <c r="J27" s="142"/>
-      <c r="K27" s="142"/>
-      <c r="L27" s="142"/>
-      <c r="M27" s="138"/>
-      <c r="N27" s="138"/>
-      <c r="O27" s="138"/>
-      <c r="P27" s="138"/>
-      <c r="Q27" s="141"/>
-      <c r="R27" s="139"/>
+      <c r="C27" s="130"/>
+      <c r="D27" s="130"/>
+      <c r="E27" s="130"/>
+      <c r="F27" s="130"/>
+      <c r="G27" s="130"/>
+      <c r="H27" s="130"/>
+      <c r="I27" s="132"/>
+      <c r="J27" s="130"/>
+      <c r="K27" s="130"/>
+      <c r="L27" s="130"/>
+      <c r="M27" s="133"/>
+      <c r="N27" s="133"/>
+      <c r="O27" s="133"/>
+      <c r="P27" s="133"/>
+      <c r="Q27" s="136"/>
+      <c r="R27" s="134"/>
     </row>
     <row r="28" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A28" s="45" t="s">
@@ -17399,15 +17415,15 @@
       </c>
     </row>
     <row r="47" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="143"/>
-      <c r="B47" s="143"/>
-      <c r="C47" s="143"/>
-      <c r="D47" s="144"/>
-      <c r="E47" s="144"/>
-      <c r="F47" s="144"/>
-      <c r="G47" s="144"/>
-      <c r="H47" s="144"/>
-      <c r="I47" s="144"/>
+      <c r="A47" s="123"/>
+      <c r="B47" s="123"/>
+      <c r="C47" s="123"/>
+      <c r="D47" s="125"/>
+      <c r="E47" s="125"/>
+      <c r="F47" s="125"/>
+      <c r="G47" s="125"/>
+      <c r="H47" s="125"/>
+      <c r="I47" s="125"/>
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A48" s="45" t="s">
@@ -17441,11 +17457,11 @@
       <c r="C50" s="44">
         <v>265859.15000000002</v>
       </c>
-      <c r="E50" s="131" t="s">
+      <c r="E50" s="145" t="s">
         <v>112</v>
       </c>
-      <c r="F50" s="131"/>
-      <c r="G50" s="131"/>
+      <c r="F50" s="145"/>
+      <c r="G50" s="145"/>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="43" t="s">
@@ -17457,9 +17473,9 @@
       <c r="C51" s="44">
         <v>208275.08</v>
       </c>
-      <c r="E51" s="131"/>
-      <c r="F51" s="131"/>
-      <c r="G51" s="131"/>
+      <c r="E51" s="145"/>
+      <c r="F51" s="145"/>
+      <c r="G51" s="145"/>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="43" t="s">
@@ -17471,9 +17487,9 @@
       <c r="C52" s="44">
         <v>0</v>
       </c>
-      <c r="E52" s="132"/>
-      <c r="F52" s="132"/>
-      <c r="G52" s="132"/>
+      <c r="E52" s="146"/>
+      <c r="F52" s="146"/>
+      <c r="G52" s="146"/>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="43" t="s">
@@ -17485,10 +17501,10 @@
       <c r="C53" s="44">
         <v>5708.81</v>
       </c>
-      <c r="E53" s="133" t="s">
+      <c r="E53" s="124" t="s">
         <v>77</v>
       </c>
-      <c r="F53" s="133"/>
+      <c r="F53" s="124"/>
       <c r="G53" s="48">
         <v>4803300.51</v>
       </c>
@@ -17503,10 +17519,10 @@
       <c r="C54" s="44">
         <v>744064.75</v>
       </c>
-      <c r="E54" s="133" t="s">
+      <c r="E54" s="124" t="s">
         <v>78</v>
       </c>
-      <c r="F54" s="133"/>
+      <c r="F54" s="124"/>
       <c r="G54" s="48">
         <v>3488402.46</v>
       </c>
@@ -17521,10 +17537,10 @@
       <c r="C55" s="44">
         <v>0</v>
       </c>
-      <c r="E55" s="133" t="s">
+      <c r="E55" s="124" t="s">
         <v>79</v>
       </c>
-      <c r="F55" s="133"/>
+      <c r="F55" s="124"/>
       <c r="G55" s="38">
         <f>G53-G54</f>
         <v>1314898.0499999998</v>
@@ -17540,10 +17556,10 @@
       <c r="C56" s="44">
         <v>274005.59000000003</v>
       </c>
-      <c r="E56" s="123" t="s">
+      <c r="E56" s="126" t="s">
         <v>80</v>
       </c>
-      <c r="F56" s="123"/>
+      <c r="F56" s="126"/>
       <c r="G56" s="38" t="e">
         <f>GETPIVOTDATA("Valor",$A$28,"Centro Custo","")</f>
         <v>#REF!</v>
@@ -17560,10 +17576,10 @@
         <v>488197.85</v>
       </c>
       <c r="D57" s="40"/>
-      <c r="E57" s="124" t="s">
+      <c r="E57" s="138" t="s">
         <v>81</v>
       </c>
-      <c r="F57" s="124"/>
+      <c r="F57" s="138"/>
       <c r="G57" s="39" t="e">
         <f>G55-G56</f>
         <v>#REF!</v>
@@ -17582,11 +17598,11 @@
         <v>224640.79</v>
       </c>
       <c r="D58" s="40"/>
-      <c r="E58" s="125" t="s">
+      <c r="E58" s="139" t="s">
         <v>82</v>
       </c>
-      <c r="F58" s="125"/>
-      <c r="G58" s="128"/>
+      <c r="F58" s="139"/>
+      <c r="G58" s="142"/>
       <c r="J58" s="40"/>
       <c r="K58" s="40"/>
     </row>
@@ -17600,9 +17616,9 @@
       <c r="C59" s="44">
         <v>375568.51</v>
       </c>
-      <c r="E59" s="126"/>
-      <c r="F59" s="126"/>
-      <c r="G59" s="129"/>
+      <c r="E59" s="140"/>
+      <c r="F59" s="140"/>
+      <c r="G59" s="143"/>
       <c r="J59" s="40"/>
       <c r="K59" s="40"/>
     </row>
@@ -17616,9 +17632,9 @@
       <c r="C60" s="44">
         <v>310974.69</v>
       </c>
-      <c r="E60" s="127"/>
-      <c r="F60" s="127"/>
-      <c r="G60" s="130"/>
+      <c r="E60" s="141"/>
+      <c r="F60" s="141"/>
+      <c r="G60" s="144"/>
       <c r="J60" s="40"/>
       <c r="K60" s="40"/>
     </row>
@@ -17696,16 +17712,64 @@
     </row>
   </sheetData>
   <mergeCells count="84">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="D1:I1"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="A2:C4"/>
-    <mergeCell ref="D2:F4"/>
+    <mergeCell ref="E56:F56"/>
+    <mergeCell ref="E57:F57"/>
+    <mergeCell ref="E58:F60"/>
+    <mergeCell ref="G58:G60"/>
+    <mergeCell ref="E50:G52"/>
+    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="E54:F54"/>
+    <mergeCell ref="E55:F55"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="M12:O14"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="G12:I14"/>
+    <mergeCell ref="J12:L14"/>
+    <mergeCell ref="A10:X10"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="A12:C14"/>
+    <mergeCell ref="D12:F14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="O26:O27"/>
+    <mergeCell ref="P26:P27"/>
+    <mergeCell ref="R26:R27"/>
+    <mergeCell ref="Q26:Q27"/>
+    <mergeCell ref="J26:J27"/>
+    <mergeCell ref="K26:K27"/>
+    <mergeCell ref="L26:L27"/>
+    <mergeCell ref="M26:M27"/>
+    <mergeCell ref="N26:N27"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="J7:K7"/>
     <mergeCell ref="A26:B27"/>
     <mergeCell ref="A47:C47"/>
     <mergeCell ref="D47:I47"/>
@@ -17722,64 +17786,16 @@
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="A9:B9"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="O26:O27"/>
-    <mergeCell ref="P26:P27"/>
-    <mergeCell ref="R26:R27"/>
-    <mergeCell ref="Q26:Q27"/>
-    <mergeCell ref="J26:J27"/>
-    <mergeCell ref="K26:K27"/>
-    <mergeCell ref="L26:L27"/>
-    <mergeCell ref="M26:M27"/>
-    <mergeCell ref="N26:N27"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="A12:C14"/>
-    <mergeCell ref="D12:F14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="G12:I14"/>
-    <mergeCell ref="J12:L14"/>
-    <mergeCell ref="A10:X10"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="M19:N19"/>
-    <mergeCell ref="M12:O14"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="M18:N18"/>
-    <mergeCell ref="E56:F56"/>
-    <mergeCell ref="E57:F57"/>
-    <mergeCell ref="E58:F60"/>
-    <mergeCell ref="G58:G60"/>
-    <mergeCell ref="E50:G52"/>
-    <mergeCell ref="E53:F53"/>
-    <mergeCell ref="E54:F54"/>
-    <mergeCell ref="E55:F55"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="A2:C4"/>
+    <mergeCell ref="D2:F4"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="D1:I1"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D6:E6"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId3"/>
@@ -17797,8 +17813,8 @@
   </sheetPr>
   <dimension ref="A1:AE84"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:O20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17829,17 +17845,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="143"/>
-      <c r="B1" s="143"/>
-      <c r="C1" s="143"/>
-      <c r="D1" s="144" t="s">
+      <c r="A1" s="123"/>
+      <c r="B1" s="123"/>
+      <c r="C1" s="123"/>
+      <c r="D1" s="125" t="s">
         <v>76</v>
       </c>
-      <c r="E1" s="144"/>
-      <c r="F1" s="144"/>
-      <c r="G1" s="144"/>
-      <c r="H1" s="144"/>
-      <c r="I1" s="144"/>
+      <c r="E1" s="125"/>
+      <c r="F1" s="125"/>
+      <c r="G1" s="125"/>
+      <c r="H1" s="125"/>
+      <c r="I1" s="125"/>
       <c r="M1" s="79"/>
       <c r="N1" s="79"/>
       <c r="O1" s="79"/>
@@ -17855,212 +17871,212 @@
       <c r="Y1" s="79"/>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A2" s="135" t="s">
+      <c r="A2" s="128" t="s">
         <v>74</v>
       </c>
-      <c r="B2" s="135"/>
-      <c r="C2" s="135"/>
-      <c r="D2" s="135" t="s">
+      <c r="B2" s="128"/>
+      <c r="C2" s="128"/>
+      <c r="D2" s="128" t="s">
         <v>75</v>
       </c>
-      <c r="E2" s="135"/>
-      <c r="F2" s="135"/>
-      <c r="G2" s="135" t="s">
+      <c r="E2" s="128"/>
+      <c r="F2" s="128"/>
+      <c r="G2" s="128" t="s">
         <v>89</v>
       </c>
-      <c r="H2" s="135"/>
-      <c r="I2" s="135"/>
-      <c r="J2" s="135" t="s">
+      <c r="H2" s="128"/>
+      <c r="I2" s="128"/>
+      <c r="J2" s="128" t="s">
         <v>104</v>
       </c>
-      <c r="K2" s="135"/>
-      <c r="L2" s="135"/>
+      <c r="K2" s="128"/>
+      <c r="L2" s="128"/>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A3" s="135"/>
-      <c r="B3" s="135"/>
-      <c r="C3" s="135"/>
-      <c r="D3" s="135"/>
-      <c r="E3" s="135"/>
-      <c r="F3" s="135"/>
-      <c r="G3" s="135"/>
-      <c r="H3" s="135"/>
-      <c r="I3" s="135"/>
-      <c r="J3" s="135"/>
-      <c r="K3" s="135"/>
-      <c r="L3" s="135"/>
+      <c r="A3" s="128"/>
+      <c r="B3" s="128"/>
+      <c r="C3" s="128"/>
+      <c r="D3" s="128"/>
+      <c r="E3" s="128"/>
+      <c r="F3" s="128"/>
+      <c r="G3" s="128"/>
+      <c r="H3" s="128"/>
+      <c r="I3" s="128"/>
+      <c r="J3" s="128"/>
+      <c r="K3" s="128"/>
+      <c r="L3" s="128"/>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A4" s="136"/>
-      <c r="B4" s="136"/>
-      <c r="C4" s="136"/>
-      <c r="D4" s="136"/>
-      <c r="E4" s="136"/>
-      <c r="F4" s="136"/>
-      <c r="G4" s="136"/>
-      <c r="H4" s="136"/>
-      <c r="I4" s="136"/>
-      <c r="J4" s="136"/>
-      <c r="K4" s="136"/>
-      <c r="L4" s="136"/>
+      <c r="A4" s="129"/>
+      <c r="B4" s="129"/>
+      <c r="C4" s="129"/>
+      <c r="D4" s="129"/>
+      <c r="E4" s="129"/>
+      <c r="F4" s="129"/>
+      <c r="G4" s="129"/>
+      <c r="H4" s="129"/>
+      <c r="I4" s="129"/>
+      <c r="J4" s="129"/>
+      <c r="K4" s="129"/>
+      <c r="L4" s="129"/>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A5" s="133" t="s">
+      <c r="A5" s="124" t="s">
         <v>77</v>
       </c>
-      <c r="B5" s="133"/>
+      <c r="B5" s="124"/>
       <c r="C5" s="48">
         <v>506915.26</v>
       </c>
-      <c r="D5" s="133" t="s">
+      <c r="D5" s="124" t="s">
         <v>77</v>
       </c>
-      <c r="E5" s="133"/>
+      <c r="E5" s="124"/>
       <c r="F5" s="48">
         <v>675364.89</v>
       </c>
-      <c r="G5" s="133" t="s">
+      <c r="G5" s="124" t="s">
         <v>77</v>
       </c>
-      <c r="H5" s="133"/>
+      <c r="H5" s="124"/>
       <c r="I5" s="48">
         <v>301716.25</v>
       </c>
-      <c r="J5" s="133" t="s">
+      <c r="J5" s="124" t="s">
         <v>77</v>
       </c>
-      <c r="K5" s="133"/>
+      <c r="K5" s="124"/>
       <c r="L5" s="48">
         <v>852193.64</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A6" s="133" t="s">
+      <c r="A6" s="124" t="s">
         <v>78</v>
       </c>
-      <c r="B6" s="133"/>
+      <c r="B6" s="124"/>
       <c r="C6" s="48">
         <v>373106.56199999998</v>
       </c>
-      <c r="D6" s="133" t="s">
+      <c r="D6" s="124" t="s">
         <v>78</v>
       </c>
-      <c r="E6" s="133"/>
+      <c r="E6" s="124"/>
       <c r="F6" s="48">
         <v>514430.10700000002</v>
       </c>
-      <c r="G6" s="133" t="s">
+      <c r="G6" s="124" t="s">
         <v>78</v>
       </c>
-      <c r="H6" s="133"/>
+      <c r="H6" s="124"/>
       <c r="I6" s="48">
         <v>165064.03099999999</v>
       </c>
-      <c r="J6" s="133" t="s">
+      <c r="J6" s="124" t="s">
         <v>78</v>
       </c>
-      <c r="K6" s="133"/>
+      <c r="K6" s="124"/>
       <c r="L6" s="48">
         <v>617017.44900000002</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A7" s="133" t="s">
+      <c r="A7" s="124" t="s">
         <v>79</v>
       </c>
-      <c r="B7" s="133"/>
+      <c r="B7" s="124"/>
       <c r="C7" s="38">
         <f>C5-C6</f>
         <v>133808.69800000003</v>
       </c>
-      <c r="D7" s="133" t="s">
+      <c r="D7" s="124" t="s">
         <v>79</v>
       </c>
-      <c r="E7" s="133"/>
+      <c r="E7" s="124"/>
       <c r="F7" s="38">
         <f>F5-F6</f>
         <v>160934.783</v>
       </c>
-      <c r="G7" s="133" t="s">
+      <c r="G7" s="124" t="s">
         <v>79</v>
       </c>
-      <c r="H7" s="133"/>
+      <c r="H7" s="124"/>
       <c r="I7" s="38">
         <f>I5-I6</f>
         <v>136652.21900000001</v>
       </c>
-      <c r="J7" s="133" t="s">
+      <c r="J7" s="124" t="s">
         <v>79</v>
       </c>
-      <c r="K7" s="133"/>
+      <c r="K7" s="124"/>
       <c r="L7" s="38">
         <f>L5-L6</f>
         <v>235176.19099999999</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A8" s="123" t="s">
+      <c r="A8" s="126" t="s">
         <v>80</v>
       </c>
-      <c r="B8" s="123"/>
+      <c r="B8" s="126"/>
       <c r="C8" s="65">
         <f>C46</f>
         <v>104881.77639999996</v>
       </c>
-      <c r="D8" s="123" t="s">
+      <c r="D8" s="126" t="s">
         <v>80</v>
       </c>
-      <c r="E8" s="123"/>
+      <c r="E8" s="126"/>
       <c r="F8" s="70">
         <f>F46</f>
         <v>105889.60159999992</v>
       </c>
-      <c r="G8" s="123" t="s">
+      <c r="G8" s="126" t="s">
         <v>80</v>
       </c>
-      <c r="H8" s="123"/>
+      <c r="H8" s="126"/>
       <c r="I8" s="65">
         <f>K46</f>
         <v>123436.23959999997</v>
       </c>
-      <c r="J8" s="123" t="s">
+      <c r="J8" s="126" t="s">
         <v>80</v>
       </c>
-      <c r="K8" s="123"/>
+      <c r="K8" s="126"/>
       <c r="L8" s="70">
         <f>L46</f>
         <v>158098.28659999993</v>
       </c>
     </row>
     <row r="9" spans="1:25" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A9" s="134" t="s">
+      <c r="A9" s="127" t="s">
         <v>81</v>
       </c>
-      <c r="B9" s="134"/>
+      <c r="B9" s="127"/>
       <c r="C9" s="68">
         <f>C7-C8</f>
         <v>28926.921600000074</v>
       </c>
-      <c r="D9" s="134" t="s">
+      <c r="D9" s="127" t="s">
         <v>81</v>
       </c>
-      <c r="E9" s="134"/>
+      <c r="E9" s="127"/>
       <c r="F9" s="68">
         <f>F7-F8</f>
         <v>55045.181400000074</v>
       </c>
-      <c r="G9" s="134" t="s">
+      <c r="G9" s="127" t="s">
         <v>81</v>
       </c>
-      <c r="H9" s="134"/>
+      <c r="H9" s="127"/>
       <c r="I9" s="68">
         <f>I7-I8</f>
         <v>13215.97940000004</v>
       </c>
-      <c r="J9" s="134" t="s">
+      <c r="J9" s="127" t="s">
         <v>81</v>
       </c>
-      <c r="K9" s="134"/>
+      <c r="K9" s="127"/>
       <c r="L9" s="68">
         <f>L7-L8</f>
         <v>77077.904400000058</v>
@@ -18119,31 +18135,31 @@
       <c r="X11" s="60"/>
     </row>
     <row r="12" spans="1:25" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="135" t="s">
+      <c r="A12" s="128" t="s">
         <v>102</v>
       </c>
-      <c r="B12" s="135"/>
-      <c r="C12" s="135"/>
-      <c r="D12" s="135" t="s">
+      <c r="B12" s="128"/>
+      <c r="C12" s="128"/>
+      <c r="D12" s="128" t="s">
         <v>100</v>
       </c>
-      <c r="E12" s="135"/>
-      <c r="F12" s="135"/>
-      <c r="G12" s="135" t="s">
+      <c r="E12" s="128"/>
+      <c r="F12" s="128"/>
+      <c r="G12" s="128" t="s">
         <v>101</v>
       </c>
-      <c r="H12" s="135"/>
-      <c r="I12" s="135"/>
-      <c r="J12" s="135" t="s">
+      <c r="H12" s="128"/>
+      <c r="I12" s="128"/>
+      <c r="J12" s="128" t="s">
         <v>119</v>
       </c>
-      <c r="K12" s="135"/>
-      <c r="L12" s="135"/>
-      <c r="M12" s="135" t="s">
+      <c r="K12" s="128"/>
+      <c r="L12" s="128"/>
+      <c r="M12" s="128" t="s">
         <v>99</v>
       </c>
-      <c r="N12" s="135"/>
-      <c r="O12" s="135"/>
+      <c r="N12" s="128"/>
+      <c r="O12" s="128"/>
       <c r="P12" s="60"/>
       <c r="Q12" s="60"/>
       <c r="R12" s="60"/>
@@ -18155,21 +18171,21 @@
       <c r="X12" s="60"/>
     </row>
     <row r="13" spans="1:25" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="135"/>
-      <c r="B13" s="135"/>
-      <c r="C13" s="135"/>
-      <c r="D13" s="135"/>
-      <c r="E13" s="135"/>
-      <c r="F13" s="135"/>
-      <c r="G13" s="135"/>
-      <c r="H13" s="135"/>
-      <c r="I13" s="135"/>
-      <c r="J13" s="135"/>
-      <c r="K13" s="135"/>
-      <c r="L13" s="135"/>
-      <c r="M13" s="135"/>
-      <c r="N13" s="135"/>
-      <c r="O13" s="135"/>
+      <c r="A13" s="128"/>
+      <c r="B13" s="128"/>
+      <c r="C13" s="128"/>
+      <c r="D13" s="128"/>
+      <c r="E13" s="128"/>
+      <c r="F13" s="128"/>
+      <c r="G13" s="128"/>
+      <c r="H13" s="128"/>
+      <c r="I13" s="128"/>
+      <c r="J13" s="128"/>
+      <c r="K13" s="128"/>
+      <c r="L13" s="128"/>
+      <c r="M13" s="128"/>
+      <c r="N13" s="128"/>
+      <c r="O13" s="128"/>
       <c r="P13" s="60"/>
       <c r="Q13" s="60"/>
       <c r="R13" s="60"/>
@@ -18181,21 +18197,21 @@
       <c r="X13" s="60"/>
     </row>
     <row r="14" spans="1:25" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="136"/>
-      <c r="B14" s="136"/>
-      <c r="C14" s="136"/>
-      <c r="D14" s="136"/>
-      <c r="E14" s="136"/>
-      <c r="F14" s="136"/>
-      <c r="G14" s="136"/>
-      <c r="H14" s="136"/>
-      <c r="I14" s="136"/>
-      <c r="J14" s="136"/>
-      <c r="K14" s="136"/>
-      <c r="L14" s="136"/>
-      <c r="M14" s="136"/>
-      <c r="N14" s="136"/>
-      <c r="O14" s="136"/>
+      <c r="A14" s="129"/>
+      <c r="B14" s="129"/>
+      <c r="C14" s="129"/>
+      <c r="D14" s="129"/>
+      <c r="E14" s="129"/>
+      <c r="F14" s="129"/>
+      <c r="G14" s="129"/>
+      <c r="H14" s="129"/>
+      <c r="I14" s="129"/>
+      <c r="J14" s="129"/>
+      <c r="K14" s="129"/>
+      <c r="L14" s="129"/>
+      <c r="M14" s="129"/>
+      <c r="N14" s="129"/>
+      <c r="O14" s="129"/>
       <c r="P14" s="60"/>
       <c r="Q14" s="60"/>
       <c r="R14" s="60"/>
@@ -18207,38 +18223,38 @@
       <c r="X14" s="60"/>
     </row>
     <row r="15" spans="1:25" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="133" t="s">
+      <c r="A15" s="124" t="s">
         <v>77</v>
       </c>
-      <c r="B15" s="133"/>
+      <c r="B15" s="124"/>
       <c r="C15" s="48">
         <v>273795.55</v>
       </c>
-      <c r="D15" s="133" t="s">
+      <c r="D15" s="124" t="s">
         <v>77</v>
       </c>
-      <c r="E15" s="133"/>
+      <c r="E15" s="124"/>
       <c r="F15" s="48">
         <v>476700.04</v>
       </c>
-      <c r="G15" s="133" t="s">
+      <c r="G15" s="124" t="s">
         <v>77</v>
       </c>
-      <c r="H15" s="133"/>
+      <c r="H15" s="124"/>
       <c r="I15" s="48">
         <v>204104.65</v>
       </c>
-      <c r="J15" s="133" t="s">
+      <c r="J15" s="124" t="s">
         <v>77</v>
       </c>
-      <c r="K15" s="133"/>
+      <c r="K15" s="124"/>
       <c r="L15" s="48">
         <v>234301.63</v>
       </c>
-      <c r="M15" s="133" t="s">
+      <c r="M15" s="124" t="s">
         <v>77</v>
       </c>
-      <c r="N15" s="133"/>
+      <c r="N15" s="124"/>
       <c r="O15" s="48">
         <v>252346.74</v>
       </c>
@@ -18253,38 +18269,38 @@
       <c r="X15" s="60"/>
     </row>
     <row r="16" spans="1:25" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="133" t="s">
+      <c r="A16" s="124" t="s">
         <v>78</v>
       </c>
-      <c r="B16" s="133"/>
+      <c r="B16" s="124"/>
       <c r="C16" s="48">
         <v>236472.17499999999</v>
       </c>
-      <c r="D16" s="133" t="s">
+      <c r="D16" s="124" t="s">
         <v>78</v>
       </c>
-      <c r="E16" s="133"/>
+      <c r="E16" s="124"/>
       <c r="F16" s="48">
         <v>346950.44199999998</v>
       </c>
-      <c r="G16" s="133" t="s">
+      <c r="G16" s="124" t="s">
         <v>78</v>
       </c>
-      <c r="H16" s="133"/>
+      <c r="H16" s="124"/>
       <c r="I16" s="48">
         <v>150172.68700000001</v>
       </c>
-      <c r="J16" s="133" t="s">
+      <c r="J16" s="124" t="s">
         <v>78</v>
       </c>
-      <c r="K16" s="133"/>
+      <c r="K16" s="124"/>
       <c r="L16" s="48">
         <v>135746.33199999999</v>
       </c>
-      <c r="M16" s="133" t="s">
+      <c r="M16" s="124" t="s">
         <v>78</v>
       </c>
-      <c r="N16" s="133"/>
+      <c r="N16" s="124"/>
       <c r="O16" s="48">
         <v>181185.652</v>
       </c>
@@ -18299,42 +18315,42 @@
       <c r="X16" s="60"/>
     </row>
     <row r="17" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="133" t="s">
+      <c r="A17" s="124" t="s">
         <v>79</v>
       </c>
-      <c r="B17" s="133"/>
+      <c r="B17" s="124"/>
       <c r="C17" s="38">
         <f>C15-C16</f>
         <v>37323.375</v>
       </c>
-      <c r="D17" s="133" t="s">
+      <c r="D17" s="124" t="s">
         <v>79</v>
       </c>
-      <c r="E17" s="133"/>
+      <c r="E17" s="124"/>
       <c r="F17" s="38">
         <f>F15-F16</f>
         <v>129749.598</v>
       </c>
-      <c r="G17" s="133" t="s">
+      <c r="G17" s="124" t="s">
         <v>79</v>
       </c>
-      <c r="H17" s="133"/>
+      <c r="H17" s="124"/>
       <c r="I17" s="38">
         <f>I15-I16</f>
         <v>53931.962999999989</v>
       </c>
-      <c r="J17" s="133" t="s">
+      <c r="J17" s="124" t="s">
         <v>79</v>
       </c>
-      <c r="K17" s="133"/>
+      <c r="K17" s="124"/>
       <c r="L17" s="38">
         <f>L15-L16</f>
         <v>98555.29800000001</v>
       </c>
-      <c r="M17" s="133" t="s">
+      <c r="M17" s="124" t="s">
         <v>79</v>
       </c>
-      <c r="N17" s="133"/>
+      <c r="N17" s="124"/>
       <c r="O17" s="38">
         <f>O15-O16</f>
         <v>71161.087999999989</v>
@@ -18350,42 +18366,42 @@
       <c r="X17" s="60"/>
     </row>
     <row r="18" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="123" t="s">
+      <c r="A18" s="126" t="s">
         <v>80</v>
       </c>
-      <c r="B18" s="123"/>
+      <c r="B18" s="126"/>
       <c r="C18" s="65">
         <f>J46</f>
         <v>33235.403999999995</v>
       </c>
-      <c r="D18" s="123" t="s">
+      <c r="D18" s="126" t="s">
         <v>80</v>
       </c>
-      <c r="E18" s="123"/>
+      <c r="E18" s="126"/>
       <c r="F18" s="70">
         <f>H46</f>
         <v>67839.256399999984</v>
       </c>
-      <c r="G18" s="123" t="s">
+      <c r="G18" s="126" t="s">
         <v>80</v>
       </c>
-      <c r="H18" s="123"/>
+      <c r="H18" s="126"/>
       <c r="I18" s="65">
         <f>I46</f>
         <v>49487.266399999993</v>
       </c>
-      <c r="J18" s="123" t="s">
+      <c r="J18" s="126" t="s">
         <v>80</v>
       </c>
-      <c r="K18" s="123"/>
+      <c r="K18" s="126"/>
       <c r="L18" s="70">
         <f>Q46</f>
         <v>62088.031999999992</v>
       </c>
-      <c r="M18" s="123" t="s">
+      <c r="M18" s="126" t="s">
         <v>80</v>
       </c>
-      <c r="N18" s="123"/>
+      <c r="N18" s="126"/>
       <c r="O18" s="70">
         <f>G46</f>
         <v>49487.266399999993</v>
@@ -18401,42 +18417,42 @@
       <c r="X18" s="60"/>
     </row>
     <row r="19" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="134" t="s">
+      <c r="A19" s="127" t="s">
         <v>81</v>
       </c>
-      <c r="B19" s="134"/>
+      <c r="B19" s="127"/>
       <c r="C19" s="68">
         <f>C17-C18</f>
         <v>4087.971000000005</v>
       </c>
-      <c r="D19" s="134" t="s">
+      <c r="D19" s="127" t="s">
         <v>81</v>
       </c>
-      <c r="E19" s="134"/>
+      <c r="E19" s="127"/>
       <c r="F19" s="68">
         <f>F17-F18</f>
         <v>61910.341600000014</v>
       </c>
-      <c r="G19" s="134" t="s">
+      <c r="G19" s="127" t="s">
         <v>81</v>
       </c>
-      <c r="H19" s="134"/>
+      <c r="H19" s="127"/>
       <c r="I19" s="68">
         <f>I17-I18</f>
         <v>4444.6965999999957</v>
       </c>
-      <c r="J19" s="134" t="s">
+      <c r="J19" s="127" t="s">
         <v>81</v>
       </c>
-      <c r="K19" s="134"/>
+      <c r="K19" s="127"/>
       <c r="L19" s="68">
         <f>L17-L18</f>
         <v>36467.266000000018</v>
       </c>
-      <c r="M19" s="134" t="s">
+      <c r="M19" s="127" t="s">
         <v>81</v>
       </c>
-      <c r="N19" s="134"/>
+      <c r="N19" s="127"/>
       <c r="O19" s="68">
         <f>O17-O18</f>
         <v>21673.821599999996</v>
@@ -18570,72 +18586,72 @@
     <row r="26" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="62"/>
       <c r="B26" s="63"/>
-      <c r="C26" s="142" t="s">
+      <c r="C26" s="130" t="s">
         <v>92</v>
       </c>
-      <c r="D26" s="142" t="s">
+      <c r="D26" s="130" t="s">
         <v>94</v>
       </c>
-      <c r="E26" s="142" t="s">
+      <c r="E26" s="130" t="s">
         <v>96</v>
       </c>
-      <c r="F26" s="142" t="s">
+      <c r="F26" s="130" t="s">
         <v>75</v>
       </c>
-      <c r="G26" s="142" t="s">
+      <c r="G26" s="130" t="s">
         <v>99</v>
       </c>
-      <c r="H26" s="142" t="s">
+      <c r="H26" s="130" t="s">
         <v>114</v>
       </c>
-      <c r="I26" s="145" t="s">
+      <c r="I26" s="131" t="s">
         <v>101</v>
       </c>
-      <c r="J26" s="142" t="s">
+      <c r="J26" s="130" t="s">
         <v>113</v>
       </c>
-      <c r="K26" s="142" t="s">
+      <c r="K26" s="130" t="s">
         <v>89</v>
       </c>
-      <c r="L26" s="142" t="s">
+      <c r="L26" s="130" t="s">
         <v>104</v>
       </c>
-      <c r="M26" s="138" t="s">
+      <c r="M26" s="133" t="s">
         <v>115</v>
       </c>
-      <c r="N26" s="138" t="s">
+      <c r="N26" s="133" t="s">
         <v>106</v>
       </c>
-      <c r="O26" s="138" t="s">
+      <c r="O26" s="133" t="s">
         <v>116</v>
       </c>
-      <c r="P26" s="138" t="s">
+      <c r="P26" s="133" t="s">
         <v>108</v>
       </c>
-      <c r="Q26" s="145" t="s">
+      <c r="Q26" s="131" t="s">
         <v>119</v>
       </c>
-      <c r="R26" s="139" t="s">
+      <c r="R26" s="134" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="27" spans="1:24" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C27" s="142"/>
-      <c r="D27" s="142"/>
-      <c r="E27" s="142"/>
-      <c r="F27" s="142"/>
-      <c r="G27" s="142"/>
-      <c r="H27" s="142"/>
-      <c r="I27" s="146"/>
-      <c r="J27" s="142"/>
-      <c r="K27" s="142"/>
-      <c r="L27" s="142"/>
-      <c r="M27" s="138"/>
-      <c r="N27" s="138"/>
-      <c r="O27" s="138"/>
-      <c r="P27" s="138"/>
-      <c r="Q27" s="146"/>
-      <c r="R27" s="139"/>
+      <c r="C27" s="130"/>
+      <c r="D27" s="130"/>
+      <c r="E27" s="130"/>
+      <c r="F27" s="130"/>
+      <c r="G27" s="130"/>
+      <c r="H27" s="130"/>
+      <c r="I27" s="132"/>
+      <c r="J27" s="130"/>
+      <c r="K27" s="130"/>
+      <c r="L27" s="130"/>
+      <c r="M27" s="133"/>
+      <c r="N27" s="133"/>
+      <c r="O27" s="133"/>
+      <c r="P27" s="133"/>
+      <c r="Q27" s="132"/>
+      <c r="R27" s="134"/>
     </row>
     <row r="28" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A28" s="43" t="s">
@@ -19491,15 +19507,15 @@
       </c>
     </row>
     <row r="47" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="143"/>
-      <c r="B47" s="143"/>
-      <c r="C47" s="143"/>
-      <c r="D47" s="144"/>
-      <c r="E47" s="144"/>
-      <c r="F47" s="144"/>
-      <c r="G47" s="144"/>
-      <c r="H47" s="144"/>
-      <c r="I47" s="144"/>
+      <c r="A47" s="123"/>
+      <c r="B47" s="123"/>
+      <c r="C47" s="123"/>
+      <c r="D47" s="125"/>
+      <c r="E47" s="125"/>
+      <c r="F47" s="125"/>
+      <c r="G47" s="125"/>
+      <c r="H47" s="125"/>
+      <c r="I47" s="125"/>
     </row>
     <row r="49" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A49" s="43"/>
@@ -19508,23 +19524,23 @@
     </row>
     <row r="50" spans="1:31" x14ac:dyDescent="0.25">
       <c r="C50" s="44"/>
-      <c r="E50" s="131" t="s">
+      <c r="E50" s="145" t="s">
         <v>112</v>
       </c>
-      <c r="F50" s="131"/>
-      <c r="G50" s="131"/>
+      <c r="F50" s="145"/>
+      <c r="G50" s="145"/>
     </row>
     <row r="51" spans="1:31" x14ac:dyDescent="0.25">
       <c r="C51" s="44"/>
-      <c r="E51" s="131"/>
-      <c r="F51" s="131"/>
-      <c r="G51" s="131"/>
+      <c r="E51" s="145"/>
+      <c r="F51" s="145"/>
+      <c r="G51" s="145"/>
     </row>
     <row r="52" spans="1:31" x14ac:dyDescent="0.25">
       <c r="C52" s="44"/>
-      <c r="E52" s="132"/>
-      <c r="F52" s="132"/>
-      <c r="G52" s="132"/>
+      <c r="E52" s="146"/>
+      <c r="F52" s="146"/>
+      <c r="G52" s="146"/>
       <c r="Q52" s="59"/>
       <c r="R52" s="59"/>
       <c r="S52" s="59"/>
@@ -19543,10 +19559,10 @@
     </row>
     <row r="53" spans="1:31" x14ac:dyDescent="0.25">
       <c r="C53" s="44"/>
-      <c r="E53" s="133" t="s">
+      <c r="E53" s="124" t="s">
         <v>77</v>
       </c>
-      <c r="F53" s="133"/>
+      <c r="F53" s="124"/>
       <c r="G53" s="48">
         <v>4411351.55</v>
       </c>
@@ -19568,10 +19584,10 @@
     </row>
     <row r="54" spans="1:31" x14ac:dyDescent="0.25">
       <c r="C54" s="44"/>
-      <c r="E54" s="133" t="s">
+      <c r="E54" s="124" t="s">
         <v>78</v>
       </c>
-      <c r="F54" s="133"/>
+      <c r="F54" s="124"/>
       <c r="G54" s="48">
         <v>3154934.094</v>
       </c>
@@ -19593,10 +19609,10 @@
     </row>
     <row r="55" spans="1:31" x14ac:dyDescent="0.25">
       <c r="C55" s="44"/>
-      <c r="E55" s="133" t="s">
+      <c r="E55" s="124" t="s">
         <v>79</v>
       </c>
-      <c r="F55" s="133"/>
+      <c r="F55" s="124"/>
       <c r="G55" s="38">
         <f>G53-G54</f>
         <v>1256417.4559999998</v>
@@ -19619,10 +19635,10 @@
     </row>
     <row r="56" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C56" s="44"/>
-      <c r="E56" s="123" t="s">
+      <c r="E56" s="126" t="s">
         <v>80</v>
       </c>
-      <c r="F56" s="123"/>
+      <c r="F56" s="126"/>
       <c r="G56" s="38">
         <f>B35</f>
         <v>901262.2999999997</v>
@@ -19646,10 +19662,10 @@
     <row r="57" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C57" s="44"/>
       <c r="D57" s="40"/>
-      <c r="E57" s="124" t="s">
+      <c r="E57" s="138" t="s">
         <v>81</v>
       </c>
-      <c r="F57" s="124"/>
+      <c r="F57" s="138"/>
       <c r="G57" s="39">
         <f>G55-G56</f>
         <v>355155.15600000008</v>
@@ -19677,11 +19693,11 @@
       <c r="B58" s="44"/>
       <c r="C58" s="44"/>
       <c r="D58" s="40"/>
-      <c r="E58" s="125" t="s">
+      <c r="E58" s="139" t="s">
         <v>82</v>
       </c>
-      <c r="F58" s="125"/>
-      <c r="G58" s="128"/>
+      <c r="F58" s="139"/>
+      <c r="G58" s="142"/>
       <c r="J58" s="40"/>
       <c r="K58" s="40"/>
       <c r="Q58" s="59"/>
@@ -19704,9 +19720,9 @@
       <c r="A59" s="43"/>
       <c r="B59" s="44"/>
       <c r="C59" s="44"/>
-      <c r="E59" s="126"/>
-      <c r="F59" s="126"/>
-      <c r="G59" s="129"/>
+      <c r="E59" s="140"/>
+      <c r="F59" s="140"/>
+      <c r="G59" s="143"/>
       <c r="J59" s="40"/>
       <c r="K59" s="40"/>
     </row>
@@ -19714,9 +19730,9 @@
       <c r="A60" s="43"/>
       <c r="B60" s="44"/>
       <c r="C60" s="44"/>
-      <c r="E60" s="127"/>
-      <c r="F60" s="127"/>
-      <c r="G60" s="130"/>
+      <c r="E60" s="141"/>
+      <c r="F60" s="141"/>
+      <c r="G60" s="144"/>
       <c r="J60" s="40"/>
       <c r="K60" s="40"/>
     </row>
@@ -19758,20 +19774,58 @@
     </row>
   </sheetData>
   <mergeCells count="82">
-    <mergeCell ref="J2:L4"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:I1"/>
-    <mergeCell ref="A2:C4"/>
-    <mergeCell ref="D2:F4"/>
-    <mergeCell ref="G2:I4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="E56:F56"/>
+    <mergeCell ref="E57:F57"/>
+    <mergeCell ref="E58:F60"/>
+    <mergeCell ref="G58:G60"/>
+    <mergeCell ref="A47:C47"/>
+    <mergeCell ref="D47:I47"/>
+    <mergeCell ref="E50:G52"/>
+    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="E54:F54"/>
+    <mergeCell ref="E55:F55"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="R26:R27"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="I26:I27"/>
+    <mergeCell ref="J26:J27"/>
+    <mergeCell ref="K26:K27"/>
+    <mergeCell ref="L26:L27"/>
+    <mergeCell ref="M26:M27"/>
+    <mergeCell ref="N26:N27"/>
+    <mergeCell ref="O26:O27"/>
+    <mergeCell ref="P26:P27"/>
+    <mergeCell ref="Q26:Q27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="J12:L14"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="J16:K16"/>
     <mergeCell ref="M12:O14"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="D7:E7"/>
@@ -19788,58 +19842,20 @@
     <mergeCell ref="A12:C14"/>
     <mergeCell ref="D12:F14"/>
     <mergeCell ref="G12:I14"/>
-    <mergeCell ref="J12:L14"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="M18:N18"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="M19:N19"/>
-    <mergeCell ref="R26:R27"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="H26:H27"/>
-    <mergeCell ref="I26:I27"/>
-    <mergeCell ref="J26:J27"/>
-    <mergeCell ref="K26:K27"/>
-    <mergeCell ref="L26:L27"/>
-    <mergeCell ref="M26:M27"/>
-    <mergeCell ref="N26:N27"/>
-    <mergeCell ref="O26:O27"/>
-    <mergeCell ref="P26:P27"/>
-    <mergeCell ref="Q26:Q27"/>
-    <mergeCell ref="E56:F56"/>
-    <mergeCell ref="E57:F57"/>
-    <mergeCell ref="E58:F60"/>
-    <mergeCell ref="G58:G60"/>
-    <mergeCell ref="A47:C47"/>
-    <mergeCell ref="D47:I47"/>
-    <mergeCell ref="E50:G52"/>
-    <mergeCell ref="E53:F53"/>
-    <mergeCell ref="E54:F54"/>
-    <mergeCell ref="E55:F55"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="J2:L4"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:I1"/>
+    <mergeCell ref="A2:C4"/>
+    <mergeCell ref="D2:F4"/>
+    <mergeCell ref="G2:I4"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" scale="36" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -19855,7 +19871,7 @@
   <dimension ref="A1:AE86"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26:G26"/>
+      <selection activeCell="A2" sqref="A2:O23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19886,274 +19902,274 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="143"/>
-      <c r="B1" s="143"/>
-      <c r="C1" s="143"/>
-      <c r="D1" s="144" t="s">
+      <c r="A1" s="123"/>
+      <c r="B1" s="123"/>
+      <c r="C1" s="123"/>
+      <c r="D1" s="125" t="s">
         <v>76</v>
       </c>
-      <c r="E1" s="144"/>
-      <c r="F1" s="144"/>
-      <c r="G1" s="144"/>
-      <c r="H1" s="144"/>
-      <c r="I1" s="144"/>
+      <c r="E1" s="125"/>
+      <c r="F1" s="125"/>
+      <c r="G1" s="125"/>
+      <c r="H1" s="125"/>
+      <c r="I1" s="125"/>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A2" s="135" t="s">
+      <c r="A2" s="128" t="s">
         <v>74</v>
       </c>
-      <c r="B2" s="135"/>
-      <c r="C2" s="135"/>
-      <c r="D2" s="135" t="s">
+      <c r="B2" s="128"/>
+      <c r="C2" s="128"/>
+      <c r="D2" s="128" t="s">
         <v>75</v>
       </c>
-      <c r="E2" s="135"/>
-      <c r="F2" s="135"/>
-      <c r="G2" s="135" t="s">
+      <c r="E2" s="128"/>
+      <c r="F2" s="128"/>
+      <c r="G2" s="128" t="s">
         <v>89</v>
       </c>
-      <c r="H2" s="135"/>
-      <c r="I2" s="135"/>
-      <c r="J2" s="135" t="s">
+      <c r="H2" s="128"/>
+      <c r="I2" s="128"/>
+      <c r="J2" s="128" t="s">
         <v>104</v>
       </c>
-      <c r="K2" s="135"/>
-      <c r="L2" s="135"/>
-      <c r="M2" s="135" t="s">
+      <c r="K2" s="128"/>
+      <c r="L2" s="128"/>
+      <c r="M2" s="128" t="s">
         <v>94</v>
       </c>
-      <c r="N2" s="135"/>
-      <c r="O2" s="135"/>
+      <c r="N2" s="128"/>
+      <c r="O2" s="128"/>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A3" s="135"/>
-      <c r="B3" s="135"/>
-      <c r="C3" s="135"/>
-      <c r="D3" s="135"/>
-      <c r="E3" s="135"/>
-      <c r="F3" s="135"/>
-      <c r="G3" s="135"/>
-      <c r="H3" s="135"/>
-      <c r="I3" s="135"/>
-      <c r="J3" s="135"/>
-      <c r="K3" s="135"/>
-      <c r="L3" s="135"/>
-      <c r="M3" s="135"/>
-      <c r="N3" s="135"/>
-      <c r="O3" s="135"/>
+      <c r="A3" s="128"/>
+      <c r="B3" s="128"/>
+      <c r="C3" s="128"/>
+      <c r="D3" s="128"/>
+      <c r="E3" s="128"/>
+      <c r="F3" s="128"/>
+      <c r="G3" s="128"/>
+      <c r="H3" s="128"/>
+      <c r="I3" s="128"/>
+      <c r="J3" s="128"/>
+      <c r="K3" s="128"/>
+      <c r="L3" s="128"/>
+      <c r="M3" s="128"/>
+      <c r="N3" s="128"/>
+      <c r="O3" s="128"/>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A4" s="136"/>
-      <c r="B4" s="136"/>
-      <c r="C4" s="136"/>
-      <c r="D4" s="136"/>
-      <c r="E4" s="136"/>
-      <c r="F4" s="136"/>
-      <c r="G4" s="136"/>
-      <c r="H4" s="136"/>
-      <c r="I4" s="136"/>
-      <c r="J4" s="136"/>
-      <c r="K4" s="136"/>
-      <c r="L4" s="136"/>
-      <c r="M4" s="136"/>
-      <c r="N4" s="136"/>
-      <c r="O4" s="136"/>
+      <c r="A4" s="129"/>
+      <c r="B4" s="129"/>
+      <c r="C4" s="129"/>
+      <c r="D4" s="129"/>
+      <c r="E4" s="129"/>
+      <c r="F4" s="129"/>
+      <c r="G4" s="129"/>
+      <c r="H4" s="129"/>
+      <c r="I4" s="129"/>
+      <c r="J4" s="129"/>
+      <c r="K4" s="129"/>
+      <c r="L4" s="129"/>
+      <c r="M4" s="129"/>
+      <c r="N4" s="129"/>
+      <c r="O4" s="129"/>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A5" s="133" t="s">
+      <c r="A5" s="124" t="s">
         <v>77</v>
       </c>
-      <c r="B5" s="133"/>
+      <c r="B5" s="124"/>
       <c r="C5" s="48">
         <v>531867.13</v>
       </c>
-      <c r="D5" s="133" t="s">
+      <c r="D5" s="124" t="s">
         <v>77</v>
       </c>
-      <c r="E5" s="133"/>
+      <c r="E5" s="124"/>
       <c r="F5" s="48">
         <v>652795.42000000004</v>
       </c>
-      <c r="G5" s="133" t="s">
+      <c r="G5" s="124" t="s">
         <v>77</v>
       </c>
-      <c r="H5" s="133"/>
+      <c r="H5" s="124"/>
       <c r="I5" s="48">
         <v>297608.93</v>
       </c>
-      <c r="J5" s="133" t="s">
+      <c r="J5" s="124" t="s">
         <v>77</v>
       </c>
-      <c r="K5" s="133"/>
+      <c r="K5" s="124"/>
       <c r="L5" s="48">
         <v>853950.4</v>
       </c>
-      <c r="M5" s="133" t="s">
+      <c r="M5" s="124" t="s">
         <v>77</v>
       </c>
-      <c r="N5" s="133"/>
+      <c r="N5" s="124"/>
       <c r="O5" s="48">
         <v>179121.71</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A6" s="133" t="s">
+      <c r="A6" s="124" t="s">
         <v>78</v>
       </c>
-      <c r="B6" s="133"/>
+      <c r="B6" s="124"/>
       <c r="C6" s="48">
         <v>393653.83899999998</v>
       </c>
-      <c r="D6" s="133" t="s">
+      <c r="D6" s="124" t="s">
         <v>78</v>
       </c>
-      <c r="E6" s="133"/>
+      <c r="E6" s="124"/>
       <c r="F6" s="48">
         <v>499045.13</v>
       </c>
-      <c r="G6" s="133" t="s">
+      <c r="G6" s="124" t="s">
         <v>78</v>
       </c>
-      <c r="H6" s="133"/>
+      <c r="H6" s="124"/>
       <c r="I6" s="48">
         <v>162872.95000000001</v>
       </c>
-      <c r="J6" s="133" t="s">
+      <c r="J6" s="124" t="s">
         <v>78</v>
       </c>
-      <c r="K6" s="133"/>
+      <c r="K6" s="124"/>
       <c r="L6" s="48">
         <v>625284.76599999995</v>
       </c>
-      <c r="M6" s="133" t="s">
+      <c r="M6" s="124" t="s">
         <v>78</v>
       </c>
-      <c r="N6" s="133"/>
+      <c r="N6" s="124"/>
       <c r="O6" s="48">
         <v>135806.67000000001</v>
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A7" s="133" t="s">
+      <c r="A7" s="124" t="s">
         <v>79</v>
       </c>
-      <c r="B7" s="133"/>
+      <c r="B7" s="124"/>
       <c r="C7" s="38">
         <f>C5-C6</f>
         <v>138213.29100000003</v>
       </c>
-      <c r="D7" s="133" t="s">
+      <c r="D7" s="124" t="s">
         <v>79</v>
       </c>
-      <c r="E7" s="133"/>
+      <c r="E7" s="124"/>
       <c r="F7" s="38">
         <f>F5-F6</f>
         <v>153750.29000000004</v>
       </c>
-      <c r="G7" s="133" t="s">
+      <c r="G7" s="124" t="s">
         <v>79</v>
       </c>
-      <c r="H7" s="133"/>
+      <c r="H7" s="124"/>
       <c r="I7" s="38">
         <f>I5-I6</f>
         <v>134735.97999999998</v>
       </c>
-      <c r="J7" s="133" t="s">
+      <c r="J7" s="124" t="s">
         <v>79</v>
       </c>
-      <c r="K7" s="133"/>
+      <c r="K7" s="124"/>
       <c r="L7" s="38">
         <f>L5-L6</f>
         <v>228665.63400000008</v>
       </c>
-      <c r="M7" s="133" t="s">
+      <c r="M7" s="124" t="s">
         <v>79</v>
       </c>
-      <c r="N7" s="133"/>
+      <c r="N7" s="124"/>
       <c r="O7" s="38">
         <f>O5-O6</f>
         <v>43315.039999999979</v>
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A8" s="123" t="s">
+      <c r="A8" s="126" t="s">
         <v>80</v>
       </c>
-      <c r="B8" s="123"/>
+      <c r="B8" s="126"/>
       <c r="C8" s="65">
         <f>C48</f>
         <v>90740.489600000001</v>
       </c>
-      <c r="D8" s="123" t="s">
+      <c r="D8" s="126" t="s">
         <v>80</v>
       </c>
-      <c r="E8" s="123"/>
+      <c r="E8" s="126"/>
       <c r="F8" s="70">
         <f>F48</f>
         <v>92761.427100000001</v>
       </c>
-      <c r="G8" s="123" t="s">
+      <c r="G8" s="126" t="s">
         <v>80</v>
       </c>
-      <c r="H8" s="123"/>
+      <c r="H8" s="126"/>
       <c r="I8" s="65">
         <f>K48</f>
         <v>105790.9351</v>
       </c>
-      <c r="J8" s="123" t="s">
+      <c r="J8" s="126" t="s">
         <v>80</v>
       </c>
-      <c r="K8" s="123"/>
+      <c r="K8" s="126"/>
       <c r="L8" s="70">
         <f>L48</f>
         <v>132395.74300000002</v>
       </c>
-      <c r="M8" s="123" t="s">
+      <c r="M8" s="126" t="s">
         <v>80</v>
       </c>
-      <c r="N8" s="123"/>
+      <c r="N8" s="126"/>
       <c r="O8" s="70">
         <f>D48</f>
         <v>43198.650600000001</v>
       </c>
     </row>
     <row r="9" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A9" s="134" t="s">
+      <c r="A9" s="127" t="s">
         <v>81</v>
       </c>
-      <c r="B9" s="134"/>
+      <c r="B9" s="127"/>
       <c r="C9" s="68">
         <f>C7-C8</f>
         <v>47472.801400000026</v>
       </c>
-      <c r="D9" s="134" t="s">
+      <c r="D9" s="127" t="s">
         <v>81</v>
       </c>
-      <c r="E9" s="134"/>
+      <c r="E9" s="127"/>
       <c r="F9" s="68">
         <f>F7-F8</f>
         <v>60988.862900000036</v>
       </c>
-      <c r="G9" s="134" t="s">
+      <c r="G9" s="127" t="s">
         <v>81</v>
       </c>
-      <c r="H9" s="134"/>
+      <c r="H9" s="127"/>
       <c r="I9" s="68">
         <f>I7-I8</f>
         <v>28945.044899999979</v>
       </c>
-      <c r="J9" s="134" t="s">
+      <c r="J9" s="127" t="s">
         <v>81</v>
       </c>
-      <c r="K9" s="134"/>
+      <c r="K9" s="127"/>
       <c r="L9" s="68">
         <f>L7-L8</f>
         <v>96269.891000000061</v>
       </c>
-      <c r="M9" s="134" t="s">
+      <c r="M9" s="127" t="s">
         <v>81</v>
       </c>
-      <c r="N9" s="134"/>
+      <c r="N9" s="127"/>
       <c r="O9" s="68">
         <f>O7-O8</f>
         <v>116.3893999999782</v>
@@ -20314,31 +20330,31 @@
       <c r="X13" s="72"/>
     </row>
     <row r="14" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="135" t="s">
+      <c r="A14" s="128" t="s">
         <v>102</v>
       </c>
-      <c r="B14" s="135"/>
-      <c r="C14" s="135"/>
-      <c r="D14" s="135" t="s">
+      <c r="B14" s="128"/>
+      <c r="C14" s="128"/>
+      <c r="D14" s="128" t="s">
         <v>100</v>
       </c>
-      <c r="E14" s="135"/>
-      <c r="F14" s="135"/>
-      <c r="G14" s="135" t="s">
+      <c r="E14" s="128"/>
+      <c r="F14" s="128"/>
+      <c r="G14" s="128" t="s">
         <v>101</v>
       </c>
-      <c r="H14" s="135"/>
-      <c r="I14" s="135"/>
-      <c r="J14" s="135" t="s">
+      <c r="H14" s="128"/>
+      <c r="I14" s="128"/>
+      <c r="J14" s="128" t="s">
         <v>119</v>
       </c>
-      <c r="K14" s="135"/>
-      <c r="L14" s="135"/>
-      <c r="M14" s="135" t="s">
+      <c r="K14" s="128"/>
+      <c r="L14" s="128"/>
+      <c r="M14" s="128" t="s">
         <v>99</v>
       </c>
-      <c r="N14" s="135"/>
-      <c r="O14" s="135"/>
+      <c r="N14" s="128"/>
+      <c r="O14" s="128"/>
       <c r="P14" s="72"/>
       <c r="Q14" s="72"/>
       <c r="R14" s="72"/>
@@ -20350,21 +20366,21 @@
       <c r="X14" s="72"/>
     </row>
     <row r="15" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="135"/>
-      <c r="B15" s="135"/>
-      <c r="C15" s="135"/>
-      <c r="D15" s="135"/>
-      <c r="E15" s="135"/>
-      <c r="F15" s="135"/>
-      <c r="G15" s="135"/>
-      <c r="H15" s="135"/>
-      <c r="I15" s="135"/>
-      <c r="J15" s="135"/>
-      <c r="K15" s="135"/>
-      <c r="L15" s="135"/>
-      <c r="M15" s="135"/>
-      <c r="N15" s="135"/>
-      <c r="O15" s="135"/>
+      <c r="A15" s="128"/>
+      <c r="B15" s="128"/>
+      <c r="C15" s="128"/>
+      <c r="D15" s="128"/>
+      <c r="E15" s="128"/>
+      <c r="F15" s="128"/>
+      <c r="G15" s="128"/>
+      <c r="H15" s="128"/>
+      <c r="I15" s="128"/>
+      <c r="J15" s="128"/>
+      <c r="K15" s="128"/>
+      <c r="L15" s="128"/>
+      <c r="M15" s="128"/>
+      <c r="N15" s="128"/>
+      <c r="O15" s="128"/>
       <c r="P15" s="72"/>
       <c r="Q15" s="72"/>
       <c r="R15" s="72"/>
@@ -20376,21 +20392,21 @@
       <c r="X15" s="72"/>
     </row>
     <row r="16" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="136"/>
-      <c r="B16" s="136"/>
-      <c r="C16" s="136"/>
-      <c r="D16" s="136"/>
-      <c r="E16" s="136"/>
-      <c r="F16" s="136"/>
-      <c r="G16" s="136"/>
-      <c r="H16" s="136"/>
-      <c r="I16" s="136"/>
-      <c r="J16" s="136"/>
-      <c r="K16" s="136"/>
-      <c r="L16" s="136"/>
-      <c r="M16" s="136"/>
-      <c r="N16" s="136"/>
-      <c r="O16" s="136"/>
+      <c r="A16" s="129"/>
+      <c r="B16" s="129"/>
+      <c r="C16" s="129"/>
+      <c r="D16" s="129"/>
+      <c r="E16" s="129"/>
+      <c r="F16" s="129"/>
+      <c r="G16" s="129"/>
+      <c r="H16" s="129"/>
+      <c r="I16" s="129"/>
+      <c r="J16" s="129"/>
+      <c r="K16" s="129"/>
+      <c r="L16" s="129"/>
+      <c r="M16" s="129"/>
+      <c r="N16" s="129"/>
+      <c r="O16" s="129"/>
       <c r="P16" s="72"/>
       <c r="Q16" s="72"/>
       <c r="R16" s="72"/>
@@ -20402,38 +20418,38 @@
       <c r="X16" s="72"/>
     </row>
     <row r="17" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="133" t="s">
+      <c r="A17" s="124" t="s">
         <v>77</v>
       </c>
-      <c r="B17" s="133"/>
+      <c r="B17" s="124"/>
       <c r="C17" s="48">
         <v>286297.45</v>
       </c>
-      <c r="D17" s="133" t="s">
+      <c r="D17" s="124" t="s">
         <v>77</v>
       </c>
-      <c r="E17" s="133"/>
+      <c r="E17" s="124"/>
       <c r="F17" s="48">
         <v>499615.77</v>
       </c>
-      <c r="G17" s="133" t="s">
+      <c r="G17" s="124" t="s">
         <v>77</v>
       </c>
-      <c r="H17" s="133"/>
+      <c r="H17" s="124"/>
       <c r="I17" s="48">
         <v>212982.92</v>
       </c>
-      <c r="J17" s="133" t="s">
+      <c r="J17" s="124" t="s">
         <v>77</v>
       </c>
-      <c r="K17" s="133"/>
+      <c r="K17" s="124"/>
       <c r="L17" s="48">
         <v>234551.04000000001</v>
       </c>
-      <c r="M17" s="133" t="s">
+      <c r="M17" s="124" t="s">
         <v>77</v>
       </c>
-      <c r="N17" s="133"/>
+      <c r="N17" s="124"/>
       <c r="O17" s="48">
         <v>261635.31</v>
       </c>
@@ -20448,38 +20464,38 @@
       <c r="X17" s="72"/>
     </row>
     <row r="18" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="133" t="s">
+      <c r="A18" s="124" t="s">
         <v>78</v>
       </c>
-      <c r="B18" s="133"/>
+      <c r="B18" s="124"/>
       <c r="C18" s="48">
         <v>251731.51</v>
       </c>
-      <c r="D18" s="133" t="s">
+      <c r="D18" s="124" t="s">
         <v>78</v>
       </c>
-      <c r="E18" s="133"/>
+      <c r="E18" s="124"/>
       <c r="F18" s="48">
         <v>370288.01</v>
       </c>
-      <c r="G18" s="133" t="s">
+      <c r="G18" s="124" t="s">
         <v>78</v>
       </c>
-      <c r="H18" s="133"/>
+      <c r="H18" s="124"/>
       <c r="I18" s="48">
         <v>157987.6</v>
       </c>
-      <c r="J18" s="133" t="s">
+      <c r="J18" s="124" t="s">
         <v>78</v>
       </c>
-      <c r="K18" s="133"/>
+      <c r="K18" s="124"/>
       <c r="L18" s="48">
         <v>140771.85</v>
       </c>
-      <c r="M18" s="133" t="s">
+      <c r="M18" s="124" t="s">
         <v>78</v>
       </c>
-      <c r="N18" s="133"/>
+      <c r="N18" s="124"/>
       <c r="O18" s="48">
         <v>189899.06</v>
       </c>
@@ -20494,42 +20510,42 @@
       <c r="X18" s="72"/>
     </row>
     <row r="19" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="133" t="s">
+      <c r="A19" s="124" t="s">
         <v>79</v>
       </c>
-      <c r="B19" s="133"/>
+      <c r="B19" s="124"/>
       <c r="C19" s="38">
         <f>C17-C18</f>
         <v>34565.94</v>
       </c>
-      <c r="D19" s="133" t="s">
+      <c r="D19" s="124" t="s">
         <v>79</v>
       </c>
-      <c r="E19" s="133"/>
+      <c r="E19" s="124"/>
       <c r="F19" s="38">
         <f>F17-F18</f>
         <v>129327.76000000001</v>
       </c>
-      <c r="G19" s="133" t="s">
+      <c r="G19" s="124" t="s">
         <v>79</v>
       </c>
-      <c r="H19" s="133"/>
+      <c r="H19" s="124"/>
       <c r="I19" s="38">
         <f>I17-I18</f>
         <v>54995.320000000007</v>
       </c>
-      <c r="J19" s="133" t="s">
+      <c r="J19" s="124" t="s">
         <v>79</v>
       </c>
-      <c r="K19" s="133"/>
+      <c r="K19" s="124"/>
       <c r="L19" s="38">
         <f>L17-L18</f>
         <v>93779.19</v>
       </c>
-      <c r="M19" s="133" t="s">
+      <c r="M19" s="124" t="s">
         <v>79</v>
       </c>
-      <c r="N19" s="133"/>
+      <c r="N19" s="124"/>
       <c r="O19" s="38">
         <f>O17-O18</f>
         <v>71736.25</v>
@@ -20545,42 +20561,42 @@
       <c r="X19" s="72"/>
     </row>
     <row r="20" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="123" t="s">
+      <c r="A20" s="126" t="s">
         <v>80</v>
       </c>
-      <c r="B20" s="123"/>
+      <c r="B20" s="126"/>
       <c r="C20" s="65">
         <f>J48</f>
         <v>29009.596000000001</v>
       </c>
-      <c r="D20" s="123" t="s">
+      <c r="D20" s="126" t="s">
         <v>80</v>
       </c>
-      <c r="E20" s="123"/>
+      <c r="E20" s="126"/>
       <c r="F20" s="70">
         <f>H48</f>
         <v>59232.276800000007</v>
       </c>
-      <c r="G20" s="123" t="s">
+      <c r="G20" s="126" t="s">
         <v>80</v>
       </c>
-      <c r="H20" s="123"/>
+      <c r="H20" s="126"/>
       <c r="I20" s="65">
         <f>I48</f>
         <v>43198.650600000001</v>
       </c>
-      <c r="J20" s="123" t="s">
+      <c r="J20" s="126" t="s">
         <v>80</v>
       </c>
-      <c r="K20" s="123"/>
+      <c r="K20" s="126"/>
       <c r="L20" s="70">
         <f>Q48</f>
         <v>54266.080199999997</v>
       </c>
-      <c r="M20" s="123" t="s">
+      <c r="M20" s="126" t="s">
         <v>80</v>
       </c>
-      <c r="N20" s="123"/>
+      <c r="N20" s="126"/>
       <c r="O20" s="70">
         <f>G48</f>
         <v>43198.650600000001</v>
@@ -20596,42 +20612,42 @@
       <c r="X20" s="72"/>
     </row>
     <row r="21" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="134" t="s">
+      <c r="A21" s="127" t="s">
         <v>81</v>
       </c>
-      <c r="B21" s="134"/>
+      <c r="B21" s="127"/>
       <c r="C21" s="68">
         <f>C19-C20</f>
         <v>5556.344000000001</v>
       </c>
-      <c r="D21" s="134" t="s">
+      <c r="D21" s="127" t="s">
         <v>81</v>
       </c>
-      <c r="E21" s="134"/>
+      <c r="E21" s="127"/>
       <c r="F21" s="68">
         <f>F19-F20</f>
         <v>70095.483200000002</v>
       </c>
-      <c r="G21" s="134" t="s">
+      <c r="G21" s="127" t="s">
         <v>81</v>
       </c>
-      <c r="H21" s="134"/>
+      <c r="H21" s="127"/>
       <c r="I21" s="68">
         <f>I19-I20</f>
         <v>11796.669400000006</v>
       </c>
-      <c r="J21" s="134" t="s">
+      <c r="J21" s="127" t="s">
         <v>81</v>
       </c>
-      <c r="K21" s="134"/>
+      <c r="K21" s="127"/>
       <c r="L21" s="68">
         <f>L19-L20</f>
         <v>39513.109800000006</v>
       </c>
-      <c r="M21" s="134" t="s">
+      <c r="M21" s="127" t="s">
         <v>81</v>
       </c>
-      <c r="N21" s="134"/>
+      <c r="N21" s="127"/>
       <c r="O21" s="68">
         <f>O19-O20</f>
         <v>28537.599399999999</v>
@@ -20825,72 +20841,72 @@
     <row r="28" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="62"/>
       <c r="B28" s="63"/>
-      <c r="C28" s="142" t="s">
+      <c r="C28" s="130" t="s">
         <v>92</v>
       </c>
-      <c r="D28" s="142" t="s">
+      <c r="D28" s="130" t="s">
         <v>94</v>
       </c>
-      <c r="E28" s="142" t="s">
+      <c r="E28" s="130" t="s">
         <v>96</v>
       </c>
-      <c r="F28" s="142" t="s">
+      <c r="F28" s="130" t="s">
         <v>75</v>
       </c>
-      <c r="G28" s="142" t="s">
+      <c r="G28" s="130" t="s">
         <v>99</v>
       </c>
-      <c r="H28" s="142" t="s">
+      <c r="H28" s="130" t="s">
         <v>114</v>
       </c>
-      <c r="I28" s="145" t="s">
+      <c r="I28" s="131" t="s">
         <v>101</v>
       </c>
-      <c r="J28" s="142" t="s">
+      <c r="J28" s="130" t="s">
         <v>113</v>
       </c>
-      <c r="K28" s="142" t="s">
+      <c r="K28" s="130" t="s">
         <v>89</v>
       </c>
-      <c r="L28" s="142" t="s">
+      <c r="L28" s="130" t="s">
         <v>104</v>
       </c>
-      <c r="M28" s="138" t="s">
+      <c r="M28" s="133" t="s">
         <v>115</v>
       </c>
-      <c r="N28" s="138" t="s">
+      <c r="N28" s="133" t="s">
         <v>106</v>
       </c>
-      <c r="O28" s="138" t="s">
+      <c r="O28" s="133" t="s">
         <v>116</v>
       </c>
-      <c r="P28" s="138" t="s">
+      <c r="P28" s="133" t="s">
         <v>108</v>
       </c>
-      <c r="Q28" s="145" t="s">
+      <c r="Q28" s="131" t="s">
         <v>119</v>
       </c>
-      <c r="R28" s="139" t="s">
+      <c r="R28" s="134" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="29" spans="1:24" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C29" s="142"/>
-      <c r="D29" s="142"/>
-      <c r="E29" s="142"/>
-      <c r="F29" s="142"/>
-      <c r="G29" s="142"/>
-      <c r="H29" s="142"/>
-      <c r="I29" s="146"/>
-      <c r="J29" s="142"/>
-      <c r="K29" s="142"/>
-      <c r="L29" s="142"/>
-      <c r="M29" s="138"/>
-      <c r="N29" s="138"/>
-      <c r="O29" s="138"/>
-      <c r="P29" s="138"/>
-      <c r="Q29" s="146"/>
-      <c r="R29" s="139"/>
+      <c r="C29" s="130"/>
+      <c r="D29" s="130"/>
+      <c r="E29" s="130"/>
+      <c r="F29" s="130"/>
+      <c r="G29" s="130"/>
+      <c r="H29" s="130"/>
+      <c r="I29" s="132"/>
+      <c r="J29" s="130"/>
+      <c r="K29" s="130"/>
+      <c r="L29" s="130"/>
+      <c r="M29" s="133"/>
+      <c r="N29" s="133"/>
+      <c r="O29" s="133"/>
+      <c r="P29" s="133"/>
+      <c r="Q29" s="132"/>
+      <c r="R29" s="134"/>
     </row>
     <row r="30" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
@@ -21750,15 +21766,15 @@
       </c>
     </row>
     <row r="49" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="143"/>
-      <c r="B49" s="143"/>
-      <c r="C49" s="143"/>
-      <c r="D49" s="144"/>
-      <c r="E49" s="144"/>
-      <c r="F49" s="144"/>
-      <c r="G49" s="144"/>
-      <c r="H49" s="144"/>
-      <c r="I49" s="144"/>
+      <c r="A49" s="123"/>
+      <c r="B49" s="123"/>
+      <c r="C49" s="123"/>
+      <c r="D49" s="125"/>
+      <c r="E49" s="125"/>
+      <c r="F49" s="125"/>
+      <c r="G49" s="125"/>
+      <c r="H49" s="125"/>
+      <c r="I49" s="125"/>
     </row>
     <row r="50" spans="1:31" x14ac:dyDescent="0.25">
       <c r="E50" s="73"/>
@@ -21770,23 +21786,23 @@
     </row>
     <row r="52" spans="1:31" x14ac:dyDescent="0.25">
       <c r="C52" s="44"/>
-      <c r="E52" s="131" t="s">
+      <c r="E52" s="145" t="s">
         <v>112</v>
       </c>
-      <c r="F52" s="131"/>
-      <c r="G52" s="131"/>
+      <c r="F52" s="145"/>
+      <c r="G52" s="145"/>
     </row>
     <row r="53" spans="1:31" x14ac:dyDescent="0.25">
       <c r="C53" s="44"/>
-      <c r="E53" s="131"/>
-      <c r="F53" s="131"/>
-      <c r="G53" s="131"/>
+      <c r="E53" s="145"/>
+      <c r="F53" s="145"/>
+      <c r="G53" s="145"/>
     </row>
     <row r="54" spans="1:31" x14ac:dyDescent="0.25">
       <c r="C54" s="44"/>
-      <c r="E54" s="132"/>
-      <c r="F54" s="132"/>
-      <c r="G54" s="132"/>
+      <c r="E54" s="146"/>
+      <c r="F54" s="146"/>
+      <c r="G54" s="146"/>
       <c r="Q54" s="71"/>
       <c r="R54" s="71"/>
       <c r="S54" s="71"/>
@@ -21805,10 +21821,10 @@
     </row>
     <row r="55" spans="1:31" x14ac:dyDescent="0.25">
       <c r="C55" s="44"/>
-      <c r="E55" s="133" t="s">
+      <c r="E55" s="124" t="s">
         <v>77</v>
       </c>
-      <c r="F55" s="133"/>
+      <c r="F55" s="124"/>
       <c r="G55" s="48">
         <v>4448387.59</v>
       </c>
@@ -21830,10 +21846,10 @@
     </row>
     <row r="56" spans="1:31" x14ac:dyDescent="0.25">
       <c r="C56" s="44"/>
-      <c r="E56" s="133" t="s">
+      <c r="E56" s="124" t="s">
         <v>78</v>
       </c>
-      <c r="F56" s="133"/>
+      <c r="F56" s="124"/>
       <c r="G56" s="48">
         <v>2953080.36</v>
       </c>
@@ -21855,10 +21871,10 @@
     </row>
     <row r="57" spans="1:31" x14ac:dyDescent="0.25">
       <c r="C57" s="44"/>
-      <c r="E57" s="133" t="s">
+      <c r="E57" s="124" t="s">
         <v>79</v>
       </c>
-      <c r="F57" s="133"/>
+      <c r="F57" s="124"/>
       <c r="G57" s="38">
         <f>G55-G56</f>
         <v>1495307.23</v>
@@ -21881,10 +21897,10 @@
     </row>
     <row r="58" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C58" s="44"/>
-      <c r="E58" s="123" t="s">
+      <c r="E58" s="126" t="s">
         <v>80</v>
       </c>
-      <c r="F58" s="123"/>
+      <c r="F58" s="126"/>
       <c r="G58" s="38">
         <v>843678.7</v>
       </c>
@@ -21907,10 +21923,10 @@
     <row r="59" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C59" s="44"/>
       <c r="D59" s="40"/>
-      <c r="E59" s="124" t="s">
+      <c r="E59" s="138" t="s">
         <v>81</v>
       </c>
-      <c r="F59" s="124"/>
+      <c r="F59" s="138"/>
       <c r="G59" s="39">
         <f>G57-G58</f>
         <v>651628.53</v>
@@ -21938,11 +21954,11 @@
       <c r="B60" s="44"/>
       <c r="C60" s="44"/>
       <c r="D60" s="40"/>
-      <c r="E60" s="125" t="s">
+      <c r="E60" s="139" t="s">
         <v>82</v>
       </c>
-      <c r="F60" s="125"/>
-      <c r="G60" s="128"/>
+      <c r="F60" s="139"/>
+      <c r="G60" s="142"/>
       <c r="J60" s="40"/>
       <c r="K60" s="40"/>
       <c r="Q60" s="71"/>
@@ -21965,9 +21981,9 @@
       <c r="A61" s="43"/>
       <c r="B61" s="44"/>
       <c r="C61" s="44"/>
-      <c r="E61" s="126"/>
-      <c r="F61" s="126"/>
-      <c r="G61" s="129"/>
+      <c r="E61" s="140"/>
+      <c r="F61" s="140"/>
+      <c r="G61" s="143"/>
       <c r="J61" s="40"/>
       <c r="K61" s="40"/>
     </row>
@@ -21975,9 +21991,9 @@
       <c r="A62" s="43"/>
       <c r="B62" s="44"/>
       <c r="C62" s="44"/>
-      <c r="E62" s="127"/>
-      <c r="F62" s="127"/>
-      <c r="G62" s="130"/>
+      <c r="E62" s="141"/>
+      <c r="F62" s="141"/>
+      <c r="G62" s="144"/>
       <c r="J62" s="40"/>
       <c r="K62" s="40"/>
     </row>
@@ -22019,66 +22035,30 @@
     </row>
   </sheetData>
   <mergeCells count="108">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:I1"/>
-    <mergeCell ref="A2:C4"/>
-    <mergeCell ref="D2:F4"/>
-    <mergeCell ref="G2:I4"/>
-    <mergeCell ref="J2:L4"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="M18:N18"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="A14:C16"/>
-    <mergeCell ref="D14:F16"/>
-    <mergeCell ref="G14:I16"/>
-    <mergeCell ref="J14:L16"/>
-    <mergeCell ref="M14:O16"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:L12"/>
-    <mergeCell ref="M12:O12"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="N11:O11"/>
-    <mergeCell ref="P28:P29"/>
-    <mergeCell ref="Q28:Q29"/>
-    <mergeCell ref="R28:R29"/>
-    <mergeCell ref="A49:C49"/>
-    <mergeCell ref="D49:I49"/>
-    <mergeCell ref="H28:H29"/>
-    <mergeCell ref="I28:I29"/>
-    <mergeCell ref="J28:J29"/>
-    <mergeCell ref="K28:K29"/>
-    <mergeCell ref="L28:L29"/>
-    <mergeCell ref="M28:M29"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="M13:O13"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="D18:E18"/>
     <mergeCell ref="E60:F62"/>
     <mergeCell ref="G60:G62"/>
     <mergeCell ref="M2:O4"/>
@@ -22103,30 +22083,66 @@
     <mergeCell ref="G19:H19"/>
     <mergeCell ref="J19:K19"/>
     <mergeCell ref="M19:N19"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:L13"/>
-    <mergeCell ref="M13:O13"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="N23:O23"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="P28:P29"/>
+    <mergeCell ref="Q28:Q29"/>
+    <mergeCell ref="R28:R29"/>
+    <mergeCell ref="A49:C49"/>
+    <mergeCell ref="D49:I49"/>
+    <mergeCell ref="H28:H29"/>
+    <mergeCell ref="I28:I29"/>
+    <mergeCell ref="J28:J29"/>
+    <mergeCell ref="K28:K29"/>
+    <mergeCell ref="L28:L29"/>
+    <mergeCell ref="M28:M29"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="A14:C16"/>
+    <mergeCell ref="D14:F16"/>
+    <mergeCell ref="G14:I16"/>
+    <mergeCell ref="J14:L16"/>
+    <mergeCell ref="M14:O16"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="M12:O12"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:I1"/>
+    <mergeCell ref="A2:C4"/>
+    <mergeCell ref="D2:F4"/>
+    <mergeCell ref="G2:I4"/>
+    <mergeCell ref="J2:L4"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="J7:K7"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" scale="36" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -22139,7 +22155,7 @@
   <dimension ref="A1:AE86"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="A2" sqref="A2:O24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22170,232 +22186,232 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="143"/>
-      <c r="B1" s="143"/>
-      <c r="C1" s="143"/>
-      <c r="D1" s="144" t="s">
+      <c r="A1" s="123"/>
+      <c r="B1" s="123"/>
+      <c r="C1" s="123"/>
+      <c r="D1" s="125" t="s">
         <v>76</v>
       </c>
-      <c r="E1" s="144"/>
-      <c r="F1" s="144"/>
-      <c r="G1" s="144"/>
-      <c r="H1" s="144"/>
-      <c r="I1" s="144"/>
+      <c r="E1" s="125"/>
+      <c r="F1" s="125"/>
+      <c r="G1" s="125"/>
+      <c r="H1" s="125"/>
+      <c r="I1" s="125"/>
     </row>
     <row r="2" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="135" t="s">
+      <c r="A2" s="128" t="s">
         <v>74</v>
       </c>
-      <c r="B2" s="135"/>
-      <c r="C2" s="135"/>
-      <c r="D2" s="135" t="s">
+      <c r="B2" s="128"/>
+      <c r="C2" s="128"/>
+      <c r="D2" s="128" t="s">
         <v>75</v>
       </c>
-      <c r="E2" s="135"/>
-      <c r="F2" s="135"/>
-      <c r="G2" s="135" t="s">
+      <c r="E2" s="128"/>
+      <c r="F2" s="128"/>
+      <c r="G2" s="128" t="s">
         <v>89</v>
       </c>
-      <c r="H2" s="135"/>
-      <c r="I2" s="135"/>
-      <c r="J2" s="135" t="s">
+      <c r="H2" s="128"/>
+      <c r="I2" s="128"/>
+      <c r="J2" s="128" t="s">
         <v>104</v>
       </c>
-      <c r="K2" s="135"/>
-      <c r="L2" s="135"/>
-      <c r="M2" s="135" t="s">
+      <c r="K2" s="128"/>
+      <c r="L2" s="128"/>
+      <c r="M2" s="128" t="s">
         <v>94</v>
       </c>
-      <c r="N2" s="135"/>
-      <c r="O2" s="135"/>
+      <c r="N2" s="128"/>
+      <c r="O2" s="128"/>
     </row>
     <row r="3" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="135"/>
-      <c r="B3" s="135"/>
-      <c r="C3" s="135"/>
-      <c r="D3" s="135"/>
-      <c r="E3" s="135"/>
-      <c r="F3" s="135"/>
-      <c r="G3" s="135"/>
-      <c r="H3" s="135"/>
-      <c r="I3" s="135"/>
-      <c r="J3" s="135"/>
-      <c r="K3" s="135"/>
-      <c r="L3" s="135"/>
-      <c r="M3" s="135"/>
-      <c r="N3" s="135"/>
-      <c r="O3" s="135"/>
+      <c r="A3" s="128"/>
+      <c r="B3" s="128"/>
+      <c r="C3" s="128"/>
+      <c r="D3" s="128"/>
+      <c r="E3" s="128"/>
+      <c r="F3" s="128"/>
+      <c r="G3" s="128"/>
+      <c r="H3" s="128"/>
+      <c r="I3" s="128"/>
+      <c r="J3" s="128"/>
+      <c r="K3" s="128"/>
+      <c r="L3" s="128"/>
+      <c r="M3" s="128"/>
+      <c r="N3" s="128"/>
+      <c r="O3" s="128"/>
     </row>
     <row r="4" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="136"/>
-      <c r="B4" s="136"/>
-      <c r="C4" s="136"/>
-      <c r="D4" s="136"/>
-      <c r="E4" s="136"/>
-      <c r="F4" s="136"/>
-      <c r="G4" s="136"/>
-      <c r="H4" s="136"/>
-      <c r="I4" s="136"/>
-      <c r="J4" s="136"/>
-      <c r="K4" s="136"/>
-      <c r="L4" s="136"/>
-      <c r="M4" s="136"/>
-      <c r="N4" s="136"/>
-      <c r="O4" s="136"/>
+      <c r="A4" s="129"/>
+      <c r="B4" s="129"/>
+      <c r="C4" s="129"/>
+      <c r="D4" s="129"/>
+      <c r="E4" s="129"/>
+      <c r="F4" s="129"/>
+      <c r="G4" s="129"/>
+      <c r="H4" s="129"/>
+      <c r="I4" s="129"/>
+      <c r="J4" s="129"/>
+      <c r="K4" s="129"/>
+      <c r="L4" s="129"/>
+      <c r="M4" s="129"/>
+      <c r="N4" s="129"/>
+      <c r="O4" s="129"/>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A5" s="149" t="s">
+      <c r="A5" s="158" t="s">
         <v>77</v>
       </c>
-      <c r="B5" s="149"/>
+      <c r="B5" s="158"/>
       <c r="C5" s="48">
         <v>557799.81999999995</v>
       </c>
-      <c r="D5" s="150" t="s">
+      <c r="D5" s="152" t="s">
         <v>77</v>
       </c>
-      <c r="E5" s="150"/>
+      <c r="E5" s="152"/>
       <c r="F5" s="48">
         <v>650006.14</v>
       </c>
-      <c r="G5" s="150" t="s">
+      <c r="G5" s="152" t="s">
         <v>77</v>
       </c>
-      <c r="H5" s="150"/>
+      <c r="H5" s="152"/>
       <c r="I5" s="48">
         <v>308541.14</v>
       </c>
-      <c r="J5" s="150" t="s">
+      <c r="J5" s="152" t="s">
         <v>77</v>
       </c>
-      <c r="K5" s="150"/>
+      <c r="K5" s="152"/>
       <c r="L5" s="48">
         <v>862935.39</v>
       </c>
-      <c r="M5" s="150" t="s">
+      <c r="M5" s="152" t="s">
         <v>77</v>
       </c>
-      <c r="N5" s="150"/>
+      <c r="N5" s="152"/>
       <c r="O5" s="48">
         <v>212036.46</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A6" s="151" t="s">
+      <c r="A6" s="157" t="s">
         <v>78</v>
       </c>
-      <c r="B6" s="151"/>
+      <c r="B6" s="157"/>
       <c r="C6" s="48">
         <v>388269.11</v>
       </c>
-      <c r="D6" s="150" t="s">
+      <c r="D6" s="152" t="s">
         <v>78</v>
       </c>
-      <c r="E6" s="150"/>
+      <c r="E6" s="152"/>
       <c r="F6" s="48">
         <v>483047.13199999998</v>
       </c>
-      <c r="G6" s="150" t="s">
+      <c r="G6" s="152" t="s">
         <v>78</v>
       </c>
-      <c r="H6" s="150"/>
+      <c r="H6" s="152"/>
       <c r="I6" s="48">
         <v>175844.09</v>
       </c>
-      <c r="J6" s="150" t="s">
+      <c r="J6" s="152" t="s">
         <v>78</v>
       </c>
-      <c r="K6" s="150"/>
+      <c r="K6" s="152"/>
       <c r="L6" s="48">
         <v>627493.02</v>
       </c>
-      <c r="M6" s="150" t="s">
+      <c r="M6" s="152" t="s">
         <v>78</v>
       </c>
-      <c r="N6" s="150"/>
+      <c r="N6" s="152"/>
       <c r="O6" s="48">
         <v>165652.34</v>
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A7" s="151" t="s">
+      <c r="A7" s="157" t="s">
         <v>79</v>
       </c>
-      <c r="B7" s="151"/>
+      <c r="B7" s="157"/>
       <c r="C7" s="38">
         <f>C5-C6</f>
         <v>169530.70999999996</v>
       </c>
-      <c r="D7" s="150" t="s">
+      <c r="D7" s="152" t="s">
         <v>79</v>
       </c>
-      <c r="E7" s="150"/>
+      <c r="E7" s="152"/>
       <c r="F7" s="38">
         <f>F5-F6</f>
         <v>166959.00800000003</v>
       </c>
-      <c r="G7" s="150" t="s">
+      <c r="G7" s="152" t="s">
         <v>79</v>
       </c>
-      <c r="H7" s="150"/>
+      <c r="H7" s="152"/>
       <c r="I7" s="38">
         <f>I5-I6</f>
         <v>132697.05000000002</v>
       </c>
-      <c r="J7" s="150" t="s">
+      <c r="J7" s="152" t="s">
         <v>79</v>
       </c>
-      <c r="K7" s="150"/>
+      <c r="K7" s="152"/>
       <c r="L7" s="38">
         <f>L5-L6</f>
         <v>235442.37</v>
       </c>
-      <c r="M7" s="150" t="s">
+      <c r="M7" s="152" t="s">
         <v>79</v>
       </c>
-      <c r="N7" s="150"/>
+      <c r="N7" s="152"/>
       <c r="O7" s="38">
         <f>O5-O6</f>
         <v>46384.119999999995</v>
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A8" s="154" t="s">
+      <c r="A8" s="155" t="s">
         <v>80</v>
       </c>
-      <c r="B8" s="154"/>
+      <c r="B8" s="155"/>
       <c r="C8" s="65">
         <f>C48</f>
         <v>83560.4764</v>
       </c>
-      <c r="D8" s="155" t="s">
+      <c r="D8" s="153" t="s">
         <v>80</v>
       </c>
-      <c r="E8" s="155"/>
+      <c r="E8" s="153"/>
       <c r="F8" s="70">
         <f>F48</f>
         <v>86799.870599999995</v>
       </c>
-      <c r="G8" s="155" t="s">
+      <c r="G8" s="153" t="s">
         <v>80</v>
       </c>
-      <c r="H8" s="155"/>
+      <c r="H8" s="153"/>
       <c r="I8" s="65">
         <f>K48</f>
         <v>98515.067099999986</v>
       </c>
-      <c r="J8" s="155" t="s">
+      <c r="J8" s="153" t="s">
         <v>80</v>
       </c>
-      <c r="K8" s="155"/>
+      <c r="K8" s="153"/>
       <c r="L8" s="70">
         <f>L48</f>
         <v>120611.04060000001</v>
       </c>
-      <c r="M8" s="155" t="s">
+      <c r="M8" s="153" t="s">
         <v>80</v>
       </c>
-      <c r="N8" s="155"/>
+      <c r="N8" s="153"/>
       <c r="O8" s="70">
         <f>D48</f>
         <v>41828.093400000005</v>
@@ -22410,34 +22426,34 @@
         <f>C7-C8</f>
         <v>85970.233599999963</v>
       </c>
-      <c r="D9" s="157" t="s">
+      <c r="D9" s="150" t="s">
         <v>81</v>
       </c>
-      <c r="E9" s="157"/>
+      <c r="E9" s="150"/>
       <c r="F9" s="68">
         <f>F7-F8</f>
         <v>80159.137400000036</v>
       </c>
-      <c r="G9" s="157" t="s">
+      <c r="G9" s="150" t="s">
         <v>81</v>
       </c>
-      <c r="H9" s="157"/>
+      <c r="H9" s="150"/>
       <c r="I9" s="68">
         <f>I7-I8</f>
         <v>34181.982900000032</v>
       </c>
-      <c r="J9" s="157" t="s">
+      <c r="J9" s="150" t="s">
         <v>81</v>
       </c>
-      <c r="K9" s="157"/>
+      <c r="K9" s="150"/>
       <c r="L9" s="86">
         <f>L7-L8</f>
         <v>114831.32939999999</v>
       </c>
-      <c r="M9" s="157" t="s">
+      <c r="M9" s="150" t="s">
         <v>81</v>
       </c>
-      <c r="N9" s="157"/>
+      <c r="N9" s="150"/>
       <c r="O9" s="68">
         <f>O7-O8</f>
         <v>4556.0265999999901</v>
@@ -22503,38 +22519,38 @@
       <c r="A11" s="89" t="s">
         <v>120</v>
       </c>
-      <c r="B11" s="152">
+      <c r="B11" s="151">
         <v>5087.5309999999999</v>
       </c>
-      <c r="C11" s="152"/>
+      <c r="C11" s="151"/>
       <c r="D11" s="89" t="s">
         <v>120</v>
       </c>
-      <c r="E11" s="152">
+      <c r="E11" s="151">
         <v>13010.71</v>
       </c>
-      <c r="F11" s="152"/>
+      <c r="F11" s="151"/>
       <c r="G11" s="89" t="s">
         <v>120</v>
       </c>
-      <c r="H11" s="153">
+      <c r="H11" s="154">
         <v>-9100.2029999999995</v>
       </c>
-      <c r="I11" s="153"/>
+      <c r="I11" s="154"/>
       <c r="J11" s="89" t="s">
         <v>120</v>
       </c>
-      <c r="K11" s="152">
+      <c r="K11" s="151">
         <v>56548.53</v>
       </c>
-      <c r="L11" s="152"/>
+      <c r="L11" s="151"/>
       <c r="M11" s="89" t="s">
         <v>120</v>
       </c>
-      <c r="N11" s="152">
+      <c r="N11" s="151">
         <v>39642</v>
       </c>
-      <c r="O11" s="152"/>
+      <c r="O11" s="151"/>
       <c r="P11" s="85"/>
       <c r="Q11" s="85"/>
       <c r="R11" s="85"/>
@@ -22628,31 +22644,31 @@
       <c r="X13" s="85"/>
     </row>
     <row r="14" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="135" t="s">
+      <c r="A14" s="128" t="s">
         <v>102</v>
       </c>
-      <c r="B14" s="135"/>
-      <c r="C14" s="135"/>
-      <c r="D14" s="135" t="s">
+      <c r="B14" s="128"/>
+      <c r="C14" s="128"/>
+      <c r="D14" s="128" t="s">
         <v>100</v>
       </c>
-      <c r="E14" s="135"/>
-      <c r="F14" s="135"/>
-      <c r="G14" s="135" t="s">
+      <c r="E14" s="128"/>
+      <c r="F14" s="128"/>
+      <c r="G14" s="128" t="s">
         <v>101</v>
       </c>
-      <c r="H14" s="135"/>
-      <c r="I14" s="135"/>
-      <c r="J14" s="135" t="s">
+      <c r="H14" s="128"/>
+      <c r="I14" s="128"/>
+      <c r="J14" s="128" t="s">
         <v>119</v>
       </c>
-      <c r="K14" s="135"/>
-      <c r="L14" s="135"/>
-      <c r="M14" s="135" t="s">
+      <c r="K14" s="128"/>
+      <c r="L14" s="128"/>
+      <c r="M14" s="128" t="s">
         <v>99</v>
       </c>
-      <c r="N14" s="135"/>
-      <c r="O14" s="135"/>
+      <c r="N14" s="128"/>
+      <c r="O14" s="128"/>
       <c r="P14" s="85"/>
       <c r="Q14" s="85"/>
       <c r="R14" s="85"/>
@@ -22664,21 +22680,21 @@
       <c r="X14" s="85"/>
     </row>
     <row r="15" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="135"/>
-      <c r="B15" s="135"/>
-      <c r="C15" s="135"/>
-      <c r="D15" s="135"/>
-      <c r="E15" s="135"/>
-      <c r="F15" s="135"/>
-      <c r="G15" s="135"/>
-      <c r="H15" s="135"/>
-      <c r="I15" s="135"/>
-      <c r="J15" s="135"/>
-      <c r="K15" s="135"/>
-      <c r="L15" s="135"/>
-      <c r="M15" s="135"/>
-      <c r="N15" s="135"/>
-      <c r="O15" s="135"/>
+      <c r="A15" s="128"/>
+      <c r="B15" s="128"/>
+      <c r="C15" s="128"/>
+      <c r="D15" s="128"/>
+      <c r="E15" s="128"/>
+      <c r="F15" s="128"/>
+      <c r="G15" s="128"/>
+      <c r="H15" s="128"/>
+      <c r="I15" s="128"/>
+      <c r="J15" s="128"/>
+      <c r="K15" s="128"/>
+      <c r="L15" s="128"/>
+      <c r="M15" s="128"/>
+      <c r="N15" s="128"/>
+      <c r="O15" s="128"/>
       <c r="P15" s="85"/>
       <c r="Q15" s="85"/>
       <c r="R15" s="85"/>
@@ -22690,21 +22706,21 @@
       <c r="X15" s="85"/>
     </row>
     <row r="16" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="136"/>
-      <c r="B16" s="136"/>
-      <c r="C16" s="136"/>
-      <c r="D16" s="136"/>
-      <c r="E16" s="136"/>
-      <c r="F16" s="136"/>
-      <c r="G16" s="136"/>
-      <c r="H16" s="136"/>
-      <c r="I16" s="136"/>
-      <c r="J16" s="136"/>
-      <c r="K16" s="136"/>
-      <c r="L16" s="136"/>
-      <c r="M16" s="136"/>
-      <c r="N16" s="136"/>
-      <c r="O16" s="136"/>
+      <c r="A16" s="129"/>
+      <c r="B16" s="129"/>
+      <c r="C16" s="129"/>
+      <c r="D16" s="129"/>
+      <c r="E16" s="129"/>
+      <c r="F16" s="129"/>
+      <c r="G16" s="129"/>
+      <c r="H16" s="129"/>
+      <c r="I16" s="129"/>
+      <c r="J16" s="129"/>
+      <c r="K16" s="129"/>
+      <c r="L16" s="129"/>
+      <c r="M16" s="129"/>
+      <c r="N16" s="129"/>
+      <c r="O16" s="129"/>
       <c r="P16" s="85"/>
       <c r="Q16" s="85"/>
       <c r="R16" s="85"/>
@@ -22716,38 +22732,38 @@
       <c r="X16" s="85"/>
     </row>
     <row r="17" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="150" t="s">
+      <c r="A17" s="152" t="s">
         <v>77</v>
       </c>
-      <c r="B17" s="150"/>
+      <c r="B17" s="152"/>
       <c r="C17" s="48">
         <v>273341.44</v>
       </c>
-      <c r="D17" s="150" t="s">
+      <c r="D17" s="152" t="s">
         <v>77</v>
       </c>
-      <c r="E17" s="150"/>
+      <c r="E17" s="152"/>
       <c r="F17" s="48">
         <v>497029.57</v>
       </c>
-      <c r="G17" s="150" t="s">
+      <c r="G17" s="152" t="s">
         <v>77</v>
       </c>
-      <c r="H17" s="150"/>
+      <c r="H17" s="152"/>
       <c r="I17" s="48">
         <v>207036.62</v>
       </c>
-      <c r="J17" s="150" t="s">
+      <c r="J17" s="152" t="s">
         <v>77</v>
       </c>
-      <c r="K17" s="150"/>
+      <c r="K17" s="152"/>
       <c r="L17" s="48">
         <v>248225.91</v>
       </c>
-      <c r="M17" s="150" t="s">
+      <c r="M17" s="152" t="s">
         <v>77</v>
       </c>
-      <c r="N17" s="150"/>
+      <c r="N17" s="152"/>
       <c r="O17" s="48">
         <v>273433.59999999998</v>
       </c>
@@ -22762,38 +22778,38 @@
       <c r="X17" s="85"/>
     </row>
     <row r="18" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="150" t="s">
+      <c r="A18" s="152" t="s">
         <v>78</v>
       </c>
-      <c r="B18" s="150"/>
+      <c r="B18" s="152"/>
       <c r="C18" s="48">
         <v>236784.66</v>
       </c>
-      <c r="D18" s="150" t="s">
+      <c r="D18" s="152" t="s">
         <v>78</v>
       </c>
-      <c r="E18" s="150"/>
+      <c r="E18" s="152"/>
       <c r="F18" s="48">
         <v>364611.87</v>
       </c>
-      <c r="G18" s="150" t="s">
+      <c r="G18" s="152" t="s">
         <v>78</v>
       </c>
-      <c r="H18" s="150"/>
+      <c r="H18" s="152"/>
       <c r="I18" s="48">
         <v>153447.85999999999</v>
       </c>
-      <c r="J18" s="150" t="s">
+      <c r="J18" s="152" t="s">
         <v>78</v>
       </c>
-      <c r="K18" s="150"/>
+      <c r="K18" s="152"/>
       <c r="L18" s="48">
         <v>148432.6</v>
       </c>
-      <c r="M18" s="150" t="s">
+      <c r="M18" s="152" t="s">
         <v>78</v>
       </c>
-      <c r="N18" s="150"/>
+      <c r="N18" s="152"/>
       <c r="O18" s="48">
         <v>196310.3</v>
       </c>
@@ -22808,42 +22824,42 @@
       <c r="X18" s="85"/>
     </row>
     <row r="19" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="150" t="s">
+      <c r="A19" s="152" t="s">
         <v>79</v>
       </c>
-      <c r="B19" s="150"/>
+      <c r="B19" s="152"/>
       <c r="C19" s="38">
         <f>C17-C18</f>
         <v>36556.78</v>
       </c>
-      <c r="D19" s="150" t="s">
+      <c r="D19" s="152" t="s">
         <v>79</v>
       </c>
-      <c r="E19" s="150"/>
+      <c r="E19" s="152"/>
       <c r="F19" s="38">
         <f>F17-F18</f>
         <v>132417.70000000001</v>
       </c>
-      <c r="G19" s="150" t="s">
+      <c r="G19" s="152" t="s">
         <v>79</v>
       </c>
-      <c r="H19" s="150"/>
+      <c r="H19" s="152"/>
       <c r="I19" s="38">
         <f>I17-I18</f>
         <v>53588.760000000009</v>
       </c>
-      <c r="J19" s="150" t="s">
+      <c r="J19" s="152" t="s">
         <v>79</v>
       </c>
-      <c r="K19" s="150"/>
+      <c r="K19" s="152"/>
       <c r="L19" s="38">
         <f>L17-L18</f>
         <v>99793.31</v>
       </c>
-      <c r="M19" s="150" t="s">
+      <c r="M19" s="152" t="s">
         <v>79</v>
       </c>
-      <c r="N19" s="150"/>
+      <c r="N19" s="152"/>
       <c r="O19" s="38">
         <f>O17-O18</f>
         <v>77123.299999999988</v>
@@ -22859,42 +22875,42 @@
       <c r="X19" s="85"/>
     </row>
     <row r="20" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="155" t="s">
+      <c r="A20" s="153" t="s">
         <v>80</v>
       </c>
-      <c r="B20" s="155"/>
+      <c r="B20" s="153"/>
       <c r="C20" s="65">
         <f>J48</f>
         <v>27933.518800000005</v>
       </c>
-      <c r="D20" s="155" t="s">
+      <c r="D20" s="153" t="s">
         <v>80</v>
       </c>
-      <c r="E20" s="155"/>
+      <c r="E20" s="153"/>
       <c r="F20" s="70">
         <f>H48</f>
         <v>57538.633300000001</v>
       </c>
-      <c r="G20" s="155" t="s">
+      <c r="G20" s="153" t="s">
         <v>80</v>
       </c>
-      <c r="H20" s="155"/>
+      <c r="H20" s="153"/>
       <c r="I20" s="65">
         <f>I48</f>
         <v>41828.093400000005</v>
       </c>
-      <c r="J20" s="155" t="s">
+      <c r="J20" s="153" t="s">
         <v>80</v>
       </c>
-      <c r="K20" s="155"/>
+      <c r="K20" s="153"/>
       <c r="L20" s="70">
         <f>Q48</f>
         <v>52723.885200000004</v>
       </c>
-      <c r="M20" s="155" t="s">
+      <c r="M20" s="153" t="s">
         <v>80</v>
       </c>
-      <c r="N20" s="155"/>
+      <c r="N20" s="153"/>
       <c r="O20" s="70">
         <f>G48</f>
         <v>41828.093400000005</v>
@@ -22910,42 +22926,42 @@
       <c r="X20" s="85"/>
     </row>
     <row r="21" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="157" t="s">
+      <c r="A21" s="150" t="s">
         <v>81</v>
       </c>
-      <c r="B21" s="157"/>
+      <c r="B21" s="150"/>
       <c r="C21" s="68">
         <f>C19-C20</f>
         <v>8623.2611999999936</v>
       </c>
-      <c r="D21" s="157" t="s">
+      <c r="D21" s="150" t="s">
         <v>81</v>
       </c>
-      <c r="E21" s="157"/>
+      <c r="E21" s="150"/>
       <c r="F21" s="68">
         <f>F19-F20</f>
         <v>74879.06670000001</v>
       </c>
-      <c r="G21" s="157" t="s">
+      <c r="G21" s="150" t="s">
         <v>81</v>
       </c>
-      <c r="H21" s="157"/>
+      <c r="H21" s="150"/>
       <c r="I21" s="68">
         <f>I19-I20</f>
         <v>11760.666600000004</v>
       </c>
-      <c r="J21" s="157" t="s">
+      <c r="J21" s="150" t="s">
         <v>81</v>
       </c>
-      <c r="K21" s="157"/>
+      <c r="K21" s="150"/>
       <c r="L21" s="68">
         <f>L19-L20</f>
         <v>47069.424799999993</v>
       </c>
-      <c r="M21" s="157" t="s">
+      <c r="M21" s="150" t="s">
         <v>81</v>
       </c>
-      <c r="N21" s="157"/>
+      <c r="N21" s="150"/>
       <c r="O21" s="68">
         <f>O19-O20</f>
         <v>35295.206599999983</v>
@@ -23020,38 +23036,38 @@
       <c r="A23" s="89" t="s">
         <v>120</v>
       </c>
-      <c r="B23" s="152">
+      <c r="B23" s="151">
         <v>27784</v>
       </c>
-      <c r="C23" s="152"/>
+      <c r="C23" s="151"/>
       <c r="D23" s="89" t="s">
         <v>120</v>
       </c>
-      <c r="E23" s="152">
+      <c r="E23" s="151">
         <v>87939.69</v>
       </c>
-      <c r="F23" s="152"/>
+      <c r="F23" s="151"/>
       <c r="G23" s="89" t="s">
         <v>120</v>
       </c>
-      <c r="H23" s="152">
+      <c r="H23" s="151">
         <v>45416</v>
       </c>
-      <c r="I23" s="152"/>
+      <c r="I23" s="151"/>
       <c r="J23" s="89" t="s">
         <v>120</v>
       </c>
-      <c r="K23" s="152">
+      <c r="K23" s="151">
         <v>307266.35499999998</v>
       </c>
-      <c r="L23" s="152"/>
+      <c r="L23" s="151"/>
       <c r="M23" s="89" t="s">
         <v>120</v>
       </c>
-      <c r="N23" s="152">
+      <c r="N23" s="151">
         <v>50010.7</v>
       </c>
-      <c r="O23" s="152"/>
+      <c r="O23" s="151"/>
       <c r="P23" s="85"/>
       <c r="Q23" s="85"/>
       <c r="R23" s="85"/>
@@ -23174,72 +23190,72 @@
     <row r="28" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="62"/>
       <c r="B28" s="63"/>
-      <c r="C28" s="142" t="s">
+      <c r="C28" s="130" t="s">
         <v>92</v>
       </c>
-      <c r="D28" s="142" t="s">
+      <c r="D28" s="130" t="s">
         <v>94</v>
       </c>
-      <c r="E28" s="142" t="s">
+      <c r="E28" s="130" t="s">
         <v>96</v>
       </c>
-      <c r="F28" s="142" t="s">
+      <c r="F28" s="130" t="s">
         <v>75</v>
       </c>
-      <c r="G28" s="142" t="s">
+      <c r="G28" s="130" t="s">
         <v>99</v>
       </c>
-      <c r="H28" s="142" t="s">
+      <c r="H28" s="130" t="s">
         <v>114</v>
       </c>
-      <c r="I28" s="145" t="s">
+      <c r="I28" s="131" t="s">
         <v>101</v>
       </c>
-      <c r="J28" s="142" t="s">
+      <c r="J28" s="130" t="s">
         <v>113</v>
       </c>
-      <c r="K28" s="142" t="s">
+      <c r="K28" s="130" t="s">
         <v>89</v>
       </c>
-      <c r="L28" s="142" t="s">
+      <c r="L28" s="130" t="s">
         <v>104</v>
       </c>
-      <c r="M28" s="138" t="s">
+      <c r="M28" s="133" t="s">
         <v>115</v>
       </c>
-      <c r="N28" s="138" t="s">
+      <c r="N28" s="133" t="s">
         <v>106</v>
       </c>
-      <c r="O28" s="138" t="s">
+      <c r="O28" s="133" t="s">
         <v>116</v>
       </c>
-      <c r="P28" s="138" t="s">
+      <c r="P28" s="133" t="s">
         <v>108</v>
       </c>
-      <c r="Q28" s="145" t="s">
+      <c r="Q28" s="131" t="s">
         <v>119</v>
       </c>
-      <c r="R28" s="139" t="s">
+      <c r="R28" s="134" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="29" spans="1:24" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C29" s="142"/>
-      <c r="D29" s="142"/>
-      <c r="E29" s="142"/>
-      <c r="F29" s="142"/>
-      <c r="G29" s="142"/>
-      <c r="H29" s="142"/>
-      <c r="I29" s="146"/>
-      <c r="J29" s="142"/>
-      <c r="K29" s="142"/>
-      <c r="L29" s="142"/>
-      <c r="M29" s="138"/>
-      <c r="N29" s="138"/>
-      <c r="O29" s="138"/>
-      <c r="P29" s="138"/>
-      <c r="Q29" s="146"/>
-      <c r="R29" s="139"/>
+      <c r="C29" s="130"/>
+      <c r="D29" s="130"/>
+      <c r="E29" s="130"/>
+      <c r="F29" s="130"/>
+      <c r="G29" s="130"/>
+      <c r="H29" s="130"/>
+      <c r="I29" s="132"/>
+      <c r="J29" s="130"/>
+      <c r="K29" s="130"/>
+      <c r="L29" s="130"/>
+      <c r="M29" s="133"/>
+      <c r="N29" s="133"/>
+      <c r="O29" s="133"/>
+      <c r="P29" s="133"/>
+      <c r="Q29" s="132"/>
+      <c r="R29" s="134"/>
     </row>
     <row r="30" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A30" s="20" t="s">
@@ -24099,15 +24115,15 @@
       </c>
     </row>
     <row r="49" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="143"/>
-      <c r="B49" s="143"/>
-      <c r="C49" s="143"/>
-      <c r="D49" s="144"/>
-      <c r="E49" s="144"/>
-      <c r="F49" s="144"/>
-      <c r="G49" s="144"/>
-      <c r="H49" s="144"/>
-      <c r="I49" s="144"/>
+      <c r="A49" s="123"/>
+      <c r="B49" s="123"/>
+      <c r="C49" s="123"/>
+      <c r="D49" s="125"/>
+      <c r="E49" s="125"/>
+      <c r="F49" s="125"/>
+      <c r="G49" s="125"/>
+      <c r="H49" s="125"/>
+      <c r="I49" s="125"/>
     </row>
     <row r="50" spans="1:31" x14ac:dyDescent="0.25">
       <c r="E50" s="73"/>
@@ -24119,23 +24135,23 @@
     </row>
     <row r="52" spans="1:31" x14ac:dyDescent="0.25">
       <c r="C52" s="44"/>
-      <c r="E52" s="131" t="s">
+      <c r="E52" s="145" t="s">
         <v>112</v>
       </c>
-      <c r="F52" s="131"/>
-      <c r="G52" s="131"/>
+      <c r="F52" s="145"/>
+      <c r="G52" s="145"/>
     </row>
     <row r="53" spans="1:31" x14ac:dyDescent="0.25">
       <c r="C53" s="44"/>
-      <c r="E53" s="131"/>
-      <c r="F53" s="131"/>
-      <c r="G53" s="131"/>
+      <c r="E53" s="145"/>
+      <c r="F53" s="145"/>
+      <c r="G53" s="145"/>
     </row>
     <row r="54" spans="1:31" x14ac:dyDescent="0.25">
       <c r="C54" s="44"/>
-      <c r="E54" s="132"/>
-      <c r="F54" s="132"/>
-      <c r="G54" s="132"/>
+      <c r="E54" s="146"/>
+      <c r="F54" s="146"/>
+      <c r="G54" s="146"/>
       <c r="Q54" s="84"/>
       <c r="R54" s="84"/>
       <c r="S54" s="84"/>
@@ -24154,10 +24170,10 @@
     </row>
     <row r="55" spans="1:31" x14ac:dyDescent="0.25">
       <c r="C55" s="44"/>
-      <c r="E55" s="133" t="s">
+      <c r="E55" s="124" t="s">
         <v>77</v>
       </c>
-      <c r="F55" s="133"/>
+      <c r="F55" s="124"/>
       <c r="G55" s="48">
         <v>4561443.93</v>
       </c>
@@ -24179,10 +24195,10 @@
     </row>
     <row r="56" spans="1:31" x14ac:dyDescent="0.25">
       <c r="C56" s="44"/>
-      <c r="E56" s="133" t="s">
+      <c r="E56" s="124" t="s">
         <v>78</v>
       </c>
-      <c r="F56" s="133"/>
+      <c r="F56" s="124"/>
       <c r="G56" s="48">
         <v>3249075.68</v>
       </c>
@@ -24204,10 +24220,10 @@
     </row>
     <row r="57" spans="1:31" x14ac:dyDescent="0.25">
       <c r="C57" s="44"/>
-      <c r="E57" s="133" t="s">
+      <c r="E57" s="124" t="s">
         <v>79</v>
       </c>
-      <c r="F57" s="133"/>
+      <c r="F57" s="124"/>
       <c r="G57" s="38">
         <f>G55-G56</f>
         <v>1312368.2499999995</v>
@@ -24230,10 +24246,10 @@
     </row>
     <row r="58" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C58" s="44"/>
-      <c r="E58" s="123" t="s">
+      <c r="E58" s="126" t="s">
         <v>80</v>
       </c>
-      <c r="F58" s="123"/>
+      <c r="F58" s="126"/>
       <c r="G58" s="38">
         <v>816594</v>
       </c>
@@ -24256,10 +24272,10 @@
     <row r="59" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C59" s="44"/>
       <c r="D59" s="40"/>
-      <c r="E59" s="124" t="s">
+      <c r="E59" s="138" t="s">
         <v>81</v>
       </c>
-      <c r="F59" s="124"/>
+      <c r="F59" s="138"/>
       <c r="G59" s="39">
         <f>G57-G58</f>
         <v>495774.24999999953</v>
@@ -24287,11 +24303,11 @@
       <c r="B60" s="44"/>
       <c r="C60" s="44"/>
       <c r="D60" s="40"/>
-      <c r="E60" s="125" t="s">
+      <c r="E60" s="139" t="s">
         <v>82</v>
       </c>
-      <c r="F60" s="125"/>
-      <c r="G60" s="128"/>
+      <c r="F60" s="139"/>
+      <c r="G60" s="142"/>
       <c r="J60" s="40"/>
       <c r="K60" s="40"/>
       <c r="Q60" s="84"/>
@@ -24314,9 +24330,9 @@
       <c r="A61" s="43"/>
       <c r="B61" s="44"/>
       <c r="C61" s="44"/>
-      <c r="E61" s="126"/>
-      <c r="F61" s="126"/>
-      <c r="G61" s="129"/>
+      <c r="E61" s="140"/>
+      <c r="F61" s="140"/>
+      <c r="G61" s="143"/>
       <c r="J61" s="40"/>
       <c r="K61" s="40"/>
     </row>
@@ -24324,9 +24340,9 @@
       <c r="A62" s="43"/>
       <c r="B62" s="44"/>
       <c r="C62" s="44"/>
-      <c r="E62" s="127"/>
-      <c r="F62" s="127"/>
-      <c r="G62" s="130"/>
+      <c r="E62" s="141"/>
+      <c r="F62" s="141"/>
+      <c r="G62" s="144"/>
       <c r="J62" s="40"/>
       <c r="K62" s="40"/>
     </row>
@@ -24346,10 +24362,10 @@
       <c r="A64" s="43"/>
       <c r="B64" s="44"/>
       <c r="C64" s="44"/>
-      <c r="E64" s="158">
+      <c r="E64" s="149">
         <v>1763206.064</v>
       </c>
-      <c r="F64" s="158"/>
+      <c r="F64" s="149"/>
       <c r="G64" s="20"/>
     </row>
     <row r="65" spans="1:7" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -24389,15 +24405,83 @@
     </row>
   </sheetData>
   <mergeCells count="104">
-    <mergeCell ref="E60:F62"/>
-    <mergeCell ref="G60:G62"/>
-    <mergeCell ref="E64:F64"/>
-    <mergeCell ref="E52:G54"/>
-    <mergeCell ref="E55:F55"/>
-    <mergeCell ref="E56:F56"/>
-    <mergeCell ref="E57:F57"/>
-    <mergeCell ref="E58:F58"/>
-    <mergeCell ref="E59:F59"/>
+    <mergeCell ref="M2:O4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:I1"/>
+    <mergeCell ref="A2:C4"/>
+    <mergeCell ref="D2:F4"/>
+    <mergeCell ref="G2:I4"/>
+    <mergeCell ref="J2:L4"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="M13:O13"/>
+    <mergeCell ref="A14:C16"/>
+    <mergeCell ref="D14:F16"/>
+    <mergeCell ref="G14:I16"/>
+    <mergeCell ref="J14:L16"/>
+    <mergeCell ref="M14:O16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="N23:O23"/>
     <mergeCell ref="O28:O29"/>
     <mergeCell ref="P28:P29"/>
     <mergeCell ref="Q28:Q29"/>
@@ -24416,87 +24500,1197 @@
     <mergeCell ref="F28:F29"/>
     <mergeCell ref="G28:G29"/>
     <mergeCell ref="H28:H29"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="M21:N21"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="N23:O23"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="M19:N19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="M18:N18"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:L13"/>
-    <mergeCell ref="M13:O13"/>
-    <mergeCell ref="A14:C16"/>
-    <mergeCell ref="D14:F16"/>
-    <mergeCell ref="G14:I16"/>
-    <mergeCell ref="J14:L16"/>
-    <mergeCell ref="M14:O16"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="N11:O11"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="M2:O4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:I1"/>
-    <mergeCell ref="A2:C4"/>
-    <mergeCell ref="D2:F4"/>
-    <mergeCell ref="G2:I4"/>
-    <mergeCell ref="J2:L4"/>
+    <mergeCell ref="E60:F62"/>
+    <mergeCell ref="G60:G62"/>
+    <mergeCell ref="E64:F64"/>
+    <mergeCell ref="E52:G54"/>
+    <mergeCell ref="E55:F55"/>
+    <mergeCell ref="E56:F56"/>
+    <mergeCell ref="E57:F57"/>
+    <mergeCell ref="E58:F58"/>
+    <mergeCell ref="E59:F59"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L39"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F43" sqref="F43"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" customWidth="1"/>
+    <col min="6" max="6" width="17" customWidth="1"/>
+    <col min="8" max="8" width="10.28515625" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="41" t="s">
+        <v>130</v>
+      </c>
+      <c r="B1" s="41" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1" s="41" t="s">
+        <v>78</v>
+      </c>
+      <c r="D1" s="41" t="s">
+        <v>79</v>
+      </c>
+      <c r="E1" s="41" t="s">
+        <v>80</v>
+      </c>
+      <c r="F1" s="41" t="s">
+        <v>81</v>
+      </c>
+      <c r="G1" s="41" t="s">
+        <v>131</v>
+      </c>
+      <c r="H1" s="41" t="s">
+        <v>132</v>
+      </c>
+      <c r="I1" s="41" t="s">
+        <v>133</v>
+      </c>
+      <c r="J1" s="41" t="s">
+        <v>120</v>
+      </c>
+      <c r="K1" s="41" t="s">
+        <v>129</v>
+      </c>
+      <c r="L1" s="41" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B2">
+        <v>515497.13</v>
+      </c>
+      <c r="C2">
+        <v>383514.01</v>
+      </c>
+      <c r="D2">
+        <v>131983.12</v>
+      </c>
+      <c r="E2">
+        <v>109890.96480000006</v>
+      </c>
+      <c r="F2">
+        <v>22092.155199999936</v>
+      </c>
+      <c r="G2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B3">
+        <v>744064.75</v>
+      </c>
+      <c r="C3">
+        <v>582486.59</v>
+      </c>
+      <c r="D3">
+        <v>161578.16000000003</v>
+      </c>
+      <c r="E3">
+        <v>107436.3848</v>
+      </c>
+      <c r="F3">
+        <v>54141.775200000033</v>
+      </c>
+      <c r="G3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B4">
+        <v>310974.69</v>
+      </c>
+      <c r="C4">
+        <v>169796.00570000001</v>
+      </c>
+      <c r="D4">
+        <v>141178.68429999999</v>
+      </c>
+      <c r="E4">
+        <v>159615.15580000004</v>
+      </c>
+      <c r="F4">
+        <v>-18436.471500000043</v>
+      </c>
+      <c r="G4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>104</v>
+      </c>
+      <c r="B5">
+        <v>892402.95</v>
+      </c>
+      <c r="C5">
+        <v>648565.17000000004</v>
+      </c>
+      <c r="D5">
+        <v>243837.77999999991</v>
+      </c>
+      <c r="E5">
+        <v>153308.26200000002</v>
+      </c>
+      <c r="F5">
+        <v>90529.517999999895</v>
+      </c>
+      <c r="G5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>102</v>
+      </c>
+      <c r="B6">
+        <v>375568.51</v>
+      </c>
+      <c r="C6">
+        <v>337876</v>
+      </c>
+      <c r="D6">
+        <v>37692.510000000009</v>
+      </c>
+      <c r="E6">
+        <v>59781.935800000021</v>
+      </c>
+      <c r="F6">
+        <v>-22089.425800000012</v>
+      </c>
+      <c r="G6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>100</v>
+      </c>
+      <c r="B7">
+        <v>488197.85</v>
+      </c>
+      <c r="C7">
+        <v>355400.3</v>
+      </c>
+      <c r="D7">
+        <v>132797.54999999999</v>
+      </c>
+      <c r="E7">
+        <v>65032.173400000014</v>
+      </c>
+      <c r="F7">
+        <v>67765.376599999974</v>
+      </c>
+      <c r="G7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>101</v>
+      </c>
+      <c r="B8">
+        <v>224640.79</v>
+      </c>
+      <c r="C8">
+        <v>167236.15</v>
+      </c>
+      <c r="D8">
+        <v>57404.640000000014</v>
+      </c>
+      <c r="E8">
+        <v>59781.935800000021</v>
+      </c>
+      <c r="F8">
+        <v>-2377.2958000000071</v>
+      </c>
+      <c r="G8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>119</v>
+      </c>
+      <c r="B9">
+        <v>265859.15000000002</v>
+      </c>
+      <c r="C9">
+        <v>157088.06</v>
+      </c>
+      <c r="D9">
+        <v>108771.09000000003</v>
+      </c>
+      <c r="E9">
+        <v>59781.935800000021</v>
+      </c>
+      <c r="F9">
+        <v>48989.154200000004</v>
+      </c>
+      <c r="G9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>99</v>
+      </c>
+      <c r="B10">
+        <v>274005.59000000003</v>
+      </c>
+      <c r="C10">
+        <v>195512.576</v>
+      </c>
+      <c r="D10">
+        <v>78493.014000000025</v>
+      </c>
+      <c r="E10">
+        <v>59781.935800000021</v>
+      </c>
+      <c r="F10">
+        <v>18711.078200000004</v>
+      </c>
+      <c r="G10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>92</v>
+      </c>
+      <c r="B11">
+        <v>506915.26</v>
+      </c>
+      <c r="C11">
+        <v>373106.56199999998</v>
+      </c>
+      <c r="D11">
+        <v>133808.69800000003</v>
+      </c>
+      <c r="E11">
+        <v>104881.77639999996</v>
+      </c>
+      <c r="F11">
+        <v>28926.921600000074</v>
+      </c>
+      <c r="G11">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>75</v>
+      </c>
+      <c r="B12">
+        <v>675364.89</v>
+      </c>
+      <c r="C12">
+        <v>514430.10700000002</v>
+      </c>
+      <c r="D12">
+        <v>160934.783</v>
+      </c>
+      <c r="E12">
+        <v>105889.60159999992</v>
+      </c>
+      <c r="F12">
+        <v>55045.181400000074</v>
+      </c>
+      <c r="G12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>89</v>
+      </c>
+      <c r="B13">
+        <v>301716.25</v>
+      </c>
+      <c r="C13">
+        <v>165064.03099999999</v>
+      </c>
+      <c r="D13">
+        <v>136652.21900000001</v>
+      </c>
+      <c r="E13">
+        <v>123436.23959999997</v>
+      </c>
+      <c r="F13">
+        <v>13215.97940000004</v>
+      </c>
+      <c r="G13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>104</v>
+      </c>
+      <c r="B14">
+        <v>852193.64</v>
+      </c>
+      <c r="C14">
+        <v>617017.44900000002</v>
+      </c>
+      <c r="D14">
+        <v>235176.19099999999</v>
+      </c>
+      <c r="E14">
+        <v>158098.28659999993</v>
+      </c>
+      <c r="F14">
+        <v>77077.904400000058</v>
+      </c>
+      <c r="G14">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>102</v>
+      </c>
+      <c r="B15">
+        <v>273795.55</v>
+      </c>
+      <c r="C15">
+        <v>236472.17499999999</v>
+      </c>
+      <c r="D15">
+        <v>37323.375</v>
+      </c>
+      <c r="E15">
+        <v>33235.403999999995</v>
+      </c>
+      <c r="F15">
+        <v>4087.971000000005</v>
+      </c>
+      <c r="G15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>100</v>
+      </c>
+      <c r="B16">
+        <v>476700.04</v>
+      </c>
+      <c r="C16">
+        <v>346950.44199999998</v>
+      </c>
+      <c r="D16">
+        <v>129749.598</v>
+      </c>
+      <c r="E16">
+        <v>67839.256399999984</v>
+      </c>
+      <c r="F16">
+        <v>61910.341600000014</v>
+      </c>
+      <c r="G16">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>101</v>
+      </c>
+      <c r="B17">
+        <v>204104.65</v>
+      </c>
+      <c r="C17">
+        <v>150172.68700000001</v>
+      </c>
+      <c r="D17">
+        <v>53931.962999999989</v>
+      </c>
+      <c r="E17">
+        <v>49487.266399999993</v>
+      </c>
+      <c r="F17">
+        <v>4444.6965999999957</v>
+      </c>
+      <c r="G17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>119</v>
+      </c>
+      <c r="B18">
+        <v>234301.63</v>
+      </c>
+      <c r="C18">
+        <v>135746.33199999999</v>
+      </c>
+      <c r="D18">
+        <v>98555.29800000001</v>
+      </c>
+      <c r="E18">
+        <v>62088.031999999992</v>
+      </c>
+      <c r="F18">
+        <v>36467.266000000018</v>
+      </c>
+      <c r="G18">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>99</v>
+      </c>
+      <c r="B19">
+        <v>252346.74</v>
+      </c>
+      <c r="C19">
+        <v>181185.652</v>
+      </c>
+      <c r="D19">
+        <v>71161.087999999989</v>
+      </c>
+      <c r="E19">
+        <v>49487.266399999993</v>
+      </c>
+      <c r="F19">
+        <v>21673.821599999996</v>
+      </c>
+      <c r="G19">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>92</v>
+      </c>
+      <c r="B20">
+        <v>531867.13</v>
+      </c>
+      <c r="C20">
+        <v>393653.83899999998</v>
+      </c>
+      <c r="D20">
+        <v>138213.29100000003</v>
+      </c>
+      <c r="E20">
+        <v>90740.489600000001</v>
+      </c>
+      <c r="F20">
+        <v>47472.801400000026</v>
+      </c>
+      <c r="G20">
+        <v>7</v>
+      </c>
+      <c r="H20">
+        <v>27522.475999999999</v>
+      </c>
+      <c r="I20">
+        <v>24607.48</v>
+      </c>
+      <c r="J20">
+        <v>3706.0140000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>75</v>
+      </c>
+      <c r="B21">
+        <v>652795.42000000004</v>
+      </c>
+      <c r="C21">
+        <v>499045.13</v>
+      </c>
+      <c r="D21">
+        <v>153750.29000000004</v>
+      </c>
+      <c r="E21">
+        <v>92761.427100000001</v>
+      </c>
+      <c r="F21">
+        <v>60988.862900000036</v>
+      </c>
+      <c r="G21">
+        <v>7</v>
+      </c>
+      <c r="H21">
+        <v>129333.8</v>
+      </c>
+      <c r="I21">
+        <v>123644.14</v>
+      </c>
+      <c r="J21">
+        <v>6705.8119999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>89</v>
+      </c>
+      <c r="B22">
+        <v>297608.93</v>
+      </c>
+      <c r="C22">
+        <v>162872.95000000001</v>
+      </c>
+      <c r="D22">
+        <v>134735.97999999998</v>
+      </c>
+      <c r="E22">
+        <v>105790.9351</v>
+      </c>
+      <c r="F22">
+        <v>28945.044899999979</v>
+      </c>
+      <c r="G22">
+        <v>7</v>
+      </c>
+      <c r="H22">
+        <v>16493</v>
+      </c>
+      <c r="I22">
+        <v>16131.47</v>
+      </c>
+      <c r="J22">
+        <v>14888.790999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>104</v>
+      </c>
+      <c r="B23">
+        <v>853950.4</v>
+      </c>
+      <c r="C23">
+        <v>625284.76599999995</v>
+      </c>
+      <c r="D23">
+        <v>228665.63400000008</v>
+      </c>
+      <c r="E23">
+        <v>132395.74300000002</v>
+      </c>
+      <c r="F23">
+        <v>96269.891000000061</v>
+      </c>
+      <c r="G23">
+        <v>7</v>
+      </c>
+      <c r="H23">
+        <v>98539.701000000001</v>
+      </c>
+      <c r="I23">
+        <v>104760.018</v>
+      </c>
+      <c r="J23">
+        <v>46511.701000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>94</v>
+      </c>
+      <c r="B24">
+        <v>179121.71</v>
+      </c>
+      <c r="C24">
+        <v>135806.67000000001</v>
+      </c>
+      <c r="D24">
+        <v>43315.039999999979</v>
+      </c>
+      <c r="E24">
+        <v>43198.650600000001</v>
+      </c>
+      <c r="F24">
+        <v>116.3893999999782</v>
+      </c>
+      <c r="G24">
+        <v>7</v>
+      </c>
+      <c r="H24">
+        <v>36424</v>
+      </c>
+      <c r="I24">
+        <v>39906</v>
+      </c>
+      <c r="J24">
+        <v>34306</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>102</v>
+      </c>
+      <c r="B25">
+        <v>286297.45</v>
+      </c>
+      <c r="C25">
+        <v>251731.51</v>
+      </c>
+      <c r="D25">
+        <v>34565.94</v>
+      </c>
+      <c r="E25">
+        <v>29009.596000000001</v>
+      </c>
+      <c r="F25">
+        <v>5556.344000000001</v>
+      </c>
+      <c r="G25">
+        <v>7</v>
+      </c>
+      <c r="H25">
+        <v>31085</v>
+      </c>
+      <c r="I25">
+        <v>29822</v>
+      </c>
+      <c r="J25">
+        <v>27049</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>100</v>
+      </c>
+      <c r="B26">
+        <v>499615.77</v>
+      </c>
+      <c r="C26">
+        <v>370288.01</v>
+      </c>
+      <c r="D26">
+        <v>129327.76000000001</v>
+      </c>
+      <c r="E26">
+        <v>59232.276800000007</v>
+      </c>
+      <c r="F26">
+        <v>70095.483200000002</v>
+      </c>
+      <c r="G26">
+        <v>7</v>
+      </c>
+      <c r="H26">
+        <v>48247</v>
+      </c>
+      <c r="I26">
+        <v>88254.206000000006</v>
+      </c>
+      <c r="J26">
+        <v>89292.479999999996</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>101</v>
+      </c>
+      <c r="B27">
+        <v>212982.92</v>
+      </c>
+      <c r="C27">
+        <v>157987.6</v>
+      </c>
+      <c r="D27">
+        <v>54995.320000000007</v>
+      </c>
+      <c r="E27">
+        <v>43198.650600000001</v>
+      </c>
+      <c r="F27">
+        <v>11796.669400000006</v>
+      </c>
+      <c r="G27">
+        <v>7</v>
+      </c>
+      <c r="H27">
+        <v>31313</v>
+      </c>
+      <c r="I27">
+        <v>45884</v>
+      </c>
+      <c r="J27">
+        <v>45971</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>119</v>
+      </c>
+      <c r="B28">
+        <v>234551.04000000001</v>
+      </c>
+      <c r="C28">
+        <v>140771.85</v>
+      </c>
+      <c r="D28">
+        <v>93779.19</v>
+      </c>
+      <c r="E28">
+        <v>54266.080199999997</v>
+      </c>
+      <c r="F28">
+        <v>39513.109800000006</v>
+      </c>
+      <c r="G28">
+        <v>7</v>
+      </c>
+      <c r="H28">
+        <v>16821</v>
+      </c>
+      <c r="I28">
+        <v>108637</v>
+      </c>
+      <c r="J28">
+        <v>392279.35</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>99</v>
+      </c>
+      <c r="B29">
+        <v>261635.31</v>
+      </c>
+      <c r="C29">
+        <v>189899.06</v>
+      </c>
+      <c r="D29">
+        <v>71736.25</v>
+      </c>
+      <c r="E29">
+        <v>43198.650600000001</v>
+      </c>
+      <c r="F29">
+        <v>28537.599399999999</v>
+      </c>
+      <c r="G29">
+        <v>7</v>
+      </c>
+      <c r="H29">
+        <v>35233</v>
+      </c>
+      <c r="I29">
+        <v>36023</v>
+      </c>
+      <c r="J29">
+        <v>49448.7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>92</v>
+      </c>
+      <c r="B30">
+        <v>557799.81999999995</v>
+      </c>
+      <c r="C30">
+        <v>388269.11</v>
+      </c>
+      <c r="D30">
+        <v>169530.70999999996</v>
+      </c>
+      <c r="E30">
+        <v>83560.4764</v>
+      </c>
+      <c r="F30">
+        <v>85970.233599999963</v>
+      </c>
+      <c r="G30">
+        <v>8</v>
+      </c>
+      <c r="H30">
+        <v>27958.125</v>
+      </c>
+      <c r="I30">
+        <v>24742.935000000001</v>
+      </c>
+      <c r="J30">
+        <v>5087.5309999999999</v>
+      </c>
+      <c r="K30">
+        <v>14.3</v>
+      </c>
+      <c r="L30">
+        <v>176.91</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>75</v>
+      </c>
+      <c r="B31">
+        <v>650006.14</v>
+      </c>
+      <c r="C31">
+        <v>483047.13199999998</v>
+      </c>
+      <c r="D31">
+        <v>166959.00800000003</v>
+      </c>
+      <c r="E31">
+        <v>86799.870599999995</v>
+      </c>
+      <c r="F31">
+        <v>80159.137400000036</v>
+      </c>
+      <c r="G31">
+        <v>8</v>
+      </c>
+      <c r="H31">
+        <v>130403.3</v>
+      </c>
+      <c r="I31">
+        <v>121927.51</v>
+      </c>
+      <c r="J31">
+        <v>13010.71</v>
+      </c>
+      <c r="K31">
+        <v>219.94399999999999</v>
+      </c>
+      <c r="L31">
+        <v>1466.38</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>89</v>
+      </c>
+      <c r="B32">
+        <v>308541.14</v>
+      </c>
+      <c r="C32">
+        <v>175844.09</v>
+      </c>
+      <c r="D32">
+        <v>132697.05000000002</v>
+      </c>
+      <c r="E32">
+        <v>98515.067099999986</v>
+      </c>
+      <c r="F32">
+        <v>34181.982900000032</v>
+      </c>
+      <c r="G32">
+        <v>8</v>
+      </c>
+      <c r="H32">
+        <v>17428.5</v>
+      </c>
+      <c r="I32">
+        <v>16638.333999999999</v>
+      </c>
+      <c r="J32">
+        <v>-9100.2029999999995</v>
+      </c>
+      <c r="K32">
+        <v>76.183000000000007</v>
+      </c>
+      <c r="L32">
+        <v>1013.28</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>104</v>
+      </c>
+      <c r="B33">
+        <v>862935.39</v>
+      </c>
+      <c r="C33">
+        <v>627493.02</v>
+      </c>
+      <c r="D33">
+        <v>235442.37</v>
+      </c>
+      <c r="E33">
+        <v>120611.04060000001</v>
+      </c>
+      <c r="F33">
+        <v>114831.32939999999</v>
+      </c>
+      <c r="G33">
+        <v>8</v>
+      </c>
+      <c r="H33">
+        <v>118333.41</v>
+      </c>
+      <c r="I33">
+        <v>97887.685200000007</v>
+      </c>
+      <c r="J33">
+        <v>56548.53</v>
+      </c>
+      <c r="K33">
+        <v>931.64099999999996</v>
+      </c>
+      <c r="L33">
+        <v>6376.75</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>94</v>
+      </c>
+      <c r="B34">
+        <v>212036.46</v>
+      </c>
+      <c r="C34">
+        <v>165652.34</v>
+      </c>
+      <c r="D34">
+        <v>46384.119999999995</v>
+      </c>
+      <c r="E34">
+        <v>41828.093400000005</v>
+      </c>
+      <c r="F34">
+        <v>4556.0265999999901</v>
+      </c>
+      <c r="G34">
+        <v>8</v>
+      </c>
+      <c r="H34">
+        <v>56794</v>
+      </c>
+      <c r="I34">
+        <v>51724</v>
+      </c>
+      <c r="J34">
+        <v>39642</v>
+      </c>
+      <c r="K34">
+        <v>329</v>
+      </c>
+      <c r="L34">
+        <v>670.7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>102</v>
+      </c>
+      <c r="B35">
+        <v>273341.44</v>
+      </c>
+      <c r="C35">
+        <v>236784.66</v>
+      </c>
+      <c r="D35">
+        <v>36556.78</v>
+      </c>
+      <c r="E35">
+        <v>27933.518800000005</v>
+      </c>
+      <c r="F35">
+        <v>8623.2611999999936</v>
+      </c>
+      <c r="G35">
+        <v>8</v>
+      </c>
+      <c r="H35">
+        <v>29424</v>
+      </c>
+      <c r="I35">
+        <v>28517</v>
+      </c>
+      <c r="J35">
+        <v>27784</v>
+      </c>
+      <c r="K35">
+        <v>82</v>
+      </c>
+      <c r="L35">
+        <v>568.94000000000005</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>100</v>
+      </c>
+      <c r="B36">
+        <v>497029.57</v>
+      </c>
+      <c r="C36">
+        <v>364611.87</v>
+      </c>
+      <c r="D36">
+        <v>132417.70000000001</v>
+      </c>
+      <c r="E36">
+        <v>57538.633300000001</v>
+      </c>
+      <c r="F36">
+        <v>74879.06670000001</v>
+      </c>
+      <c r="G36">
+        <v>8</v>
+      </c>
+      <c r="H36">
+        <v>86676</v>
+      </c>
+      <c r="I36">
+        <v>88325.79</v>
+      </c>
+      <c r="J36">
+        <v>87939.69</v>
+      </c>
+      <c r="K36">
+        <v>1241</v>
+      </c>
+      <c r="L36">
+        <v>3858.09</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>101</v>
+      </c>
+      <c r="B37">
+        <v>207036.62</v>
+      </c>
+      <c r="C37">
+        <v>153447.85999999999</v>
+      </c>
+      <c r="D37">
+        <v>53588.760000000009</v>
+      </c>
+      <c r="E37">
+        <v>41828.093400000005</v>
+      </c>
+      <c r="F37">
+        <v>11760.666600000004</v>
+      </c>
+      <c r="G37">
+        <v>8</v>
+      </c>
+      <c r="H37">
+        <v>45688</v>
+      </c>
+      <c r="I37">
+        <v>44688</v>
+      </c>
+      <c r="J37">
+        <v>45416</v>
+      </c>
+      <c r="K37">
+        <v>328</v>
+      </c>
+      <c r="L37">
+        <v>1460.84</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>119</v>
+      </c>
+      <c r="B38">
+        <v>248225.91</v>
+      </c>
+      <c r="C38">
+        <v>148432.6</v>
+      </c>
+      <c r="D38">
+        <v>99793.31</v>
+      </c>
+      <c r="E38">
+        <v>52723.885200000004</v>
+      </c>
+      <c r="F38">
+        <v>47069.424799999993</v>
+      </c>
+      <c r="G38">
+        <v>8</v>
+      </c>
+      <c r="H38">
+        <v>27346</v>
+      </c>
+      <c r="I38">
+        <v>112044</v>
+      </c>
+      <c r="J38">
+        <v>307266.35499999998</v>
+      </c>
+      <c r="K38">
+        <v>126</v>
+      </c>
+      <c r="L38">
+        <v>618.21</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>99</v>
+      </c>
+      <c r="B39">
+        <v>273433.59999999998</v>
+      </c>
+      <c r="C39">
+        <v>196310.3</v>
+      </c>
+      <c r="D39">
+        <v>77123.299999999988</v>
+      </c>
+      <c r="E39">
+        <v>41828.093400000005</v>
+      </c>
+      <c r="F39">
+        <v>35295.206599999983</v>
+      </c>
+      <c r="G39">
+        <v>8</v>
+      </c>
+      <c r="H39">
+        <v>37629</v>
+      </c>
+      <c r="I39">
+        <v>37579</v>
+      </c>
+      <c r="J39">
+        <v>50010.7</v>
+      </c>
+      <c r="K39">
+        <v>950</v>
+      </c>
+      <c r="L39">
+        <v>2727.75</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -29872,10 +31066,10 @@
     <mergeCell ref="A45:D46"/>
   </mergeCells>
   <conditionalFormatting sqref="AA43:AC46 P21:T33">
-    <cfRule type="cellIs" dxfId="20" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="13" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="12" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -32672,10 +33866,10 @@
     <mergeCell ref="A45:D46"/>
   </mergeCells>
   <conditionalFormatting sqref="AB43:AD46 Q21:U33">
-    <cfRule type="cellIs" dxfId="18" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="11" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="10" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -35403,10 +36597,10 @@
     <mergeCell ref="A45:D46"/>
   </mergeCells>
   <conditionalFormatting sqref="AB43:AD46 Q21:U34">
-    <cfRule type="cellIs" dxfId="16" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="9" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="8" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -38148,10 +39342,10 @@
     <mergeCell ref="A45:D46"/>
   </mergeCells>
   <conditionalFormatting sqref="AB43:AD46 Q21:U34">
-    <cfRule type="cellIs" dxfId="14" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="7" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="6" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -40970,10 +42164,10 @@
     <mergeCell ref="A45:D46"/>
   </mergeCells>
   <conditionalFormatting sqref="AB43:AD46 Q21:U34">
-    <cfRule type="cellIs" dxfId="12" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
